--- a/10.boston_housing/housing.xlsx
+++ b/10.boston_housing/housing.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="housing" sheetId="1" r:id="rId1"/>
     <sheet name="calc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -58,7 +58,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,8 +381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D490"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M463" sqref="M463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,1416 +404,1416 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.5750000000000002</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="B2">
-        <v>4.9800000000000004</v>
+        <v>5.91</v>
       </c>
       <c r="C2">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>504000</v>
+        <v>1024800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.4210000000000003</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="B3">
-        <v>9.14</v>
+        <v>3.81</v>
       </c>
       <c r="C3">
-        <v>17.8</v>
+        <v>14.7</v>
       </c>
       <c r="D3">
-        <v>453600</v>
+        <v>1018500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.1849999999999996</v>
+        <v>8.2469999999999999</v>
       </c>
       <c r="B4">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="C4">
-        <v>17.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D4">
-        <v>728700</v>
+        <v>1014300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.9980000000000002</v>
+        <v>7.6859999999999999</v>
       </c>
       <c r="B5">
-        <v>2.94</v>
+        <v>3.92</v>
       </c>
       <c r="C5">
-        <v>18.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D5">
-        <v>701400</v>
+        <v>980700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.1470000000000002</v>
+        <v>7.6449999999999996</v>
       </c>
       <c r="B6">
-        <v>5.33</v>
+        <v>3.01</v>
       </c>
       <c r="C6">
-        <v>18.7</v>
+        <v>14.9</v>
       </c>
       <c r="D6">
-        <v>760200</v>
+        <v>966000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.43</v>
+        <v>7.82</v>
       </c>
       <c r="B7">
-        <v>5.21</v>
+        <v>3.76</v>
       </c>
       <c r="C7">
-        <v>18.7</v>
+        <v>14.9</v>
       </c>
       <c r="D7">
-        <v>602700</v>
+        <v>953400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.0119999999999996</v>
+        <v>8.266</v>
       </c>
       <c r="B8">
-        <v>12.43</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C8">
-        <v>15.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D8">
-        <v>480900</v>
+        <v>940800</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.1719999999999997</v>
+        <v>7.4539999999999997</v>
       </c>
       <c r="B9">
-        <v>19.149999999999999</v>
+        <v>3.11</v>
       </c>
       <c r="C9">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="D9">
-        <v>569100</v>
+        <v>924000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5.6310000000000002</v>
+        <v>7.82</v>
       </c>
       <c r="B10">
-        <v>29.93</v>
+        <v>3.57</v>
       </c>
       <c r="C10">
-        <v>15.2</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>346500</v>
+        <v>919800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>6.0039999999999996</v>
+        <v>7.47</v>
       </c>
       <c r="B11">
-        <v>17.100000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="C11">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>396900</v>
+        <v>913500</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6.3769999999999998</v>
+        <v>7.52</v>
       </c>
       <c r="B12">
-        <v>20.45</v>
+        <v>7.26</v>
       </c>
       <c r="C12">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>315000</v>
+        <v>905100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6.0090000000000003</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="B13">
-        <v>13.27</v>
+        <v>3.54</v>
       </c>
       <c r="C13">
-        <v>15.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D13">
-        <v>396900</v>
+        <v>898800</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5.8890000000000002</v>
+        <v>7.61</v>
       </c>
       <c r="B14">
-        <v>15.71</v>
+        <v>3.11</v>
       </c>
       <c r="C14">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D14">
-        <v>455700</v>
+        <v>888300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5.9489999999999998</v>
+        <v>8.3369999999999997</v>
       </c>
       <c r="B15">
-        <v>8.26</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D15">
-        <v>428400</v>
+        <v>875700</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6.0960000000000001</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="B16">
-        <v>10.26</v>
+        <v>4.59</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>14.7</v>
       </c>
       <c r="D16">
-        <v>382200</v>
+        <v>867300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5.8339999999999996</v>
+        <v>7.7649999999999997</v>
       </c>
       <c r="B17">
-        <v>8.4700000000000006</v>
+        <v>7.56</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="D17">
-        <v>417900</v>
+        <v>835800</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5.9349999999999996</v>
+        <v>8.0690000000000008</v>
       </c>
       <c r="B18">
-        <v>6.58</v>
+        <v>4.21</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>485100</v>
+        <v>812700</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5.99</v>
+        <v>7.1550000000000002</v>
       </c>
       <c r="B19">
-        <v>14.67</v>
+        <v>4.82</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="D19">
-        <v>367500</v>
+        <v>795900</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5.4560000000000004</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="B20">
-        <v>11.69</v>
+        <v>3.13</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D20">
-        <v>424200</v>
+        <v>789600</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5.7270000000000003</v>
+        <v>7.1479999999999997</v>
       </c>
       <c r="B21">
-        <v>11.28</v>
+        <v>3.56</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="D21">
-        <v>382200</v>
+        <v>783300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5.57</v>
+        <v>6.98</v>
       </c>
       <c r="B22">
-        <v>21.02</v>
+        <v>5.04</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="D22">
-        <v>285600</v>
+        <v>781200</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5.9649999999999999</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="B23">
-        <v>13.83</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>15.2</v>
       </c>
       <c r="D23">
-        <v>411600</v>
+        <v>777000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6.1420000000000003</v>
+        <v>7.2060000000000004</v>
       </c>
       <c r="B24">
-        <v>18.72</v>
+        <v>8.1</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>319200</v>
+        <v>766500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5.8129999999999997</v>
+        <v>7.1779999999999999</v>
       </c>
       <c r="B25">
-        <v>19.88</v>
+        <v>2.87</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>15.2</v>
       </c>
       <c r="D25">
-        <v>304500</v>
+        <v>764400</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5.9240000000000004</v>
+        <v>7.1470000000000002</v>
       </c>
       <c r="B26">
-        <v>16.3</v>
+        <v>5.33</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>18.7</v>
       </c>
       <c r="D26">
-        <v>327600</v>
+        <v>760200</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5.5990000000000002</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="B27">
-        <v>16.510000000000002</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>17.8</v>
       </c>
       <c r="D27">
-        <v>291900</v>
+        <v>760200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5.8129999999999997</v>
+        <v>7.2359999999999998</v>
       </c>
       <c r="B28">
-        <v>14.81</v>
+        <v>6.93</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D28">
-        <v>348600</v>
+        <v>758100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>6.0469999999999997</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="B29">
-        <v>17.28</v>
+        <v>7.79</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>310800</v>
+        <v>756000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>6.4950000000000001</v>
+        <v>7.2489999999999997</v>
       </c>
       <c r="B30">
-        <v>12.8</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D30">
-        <v>386400</v>
+        <v>743400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6.6740000000000004</v>
+        <v>6.968</v>
       </c>
       <c r="B31">
-        <v>11.98</v>
+        <v>4.59</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>14.9</v>
       </c>
       <c r="D31">
-        <v>441000</v>
+        <v>743400</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5.7130000000000001</v>
+        <v>7.6909999999999998</v>
       </c>
       <c r="B32">
-        <v>22.6</v>
+        <v>6.58</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D32">
-        <v>266700</v>
+        <v>739200</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6.0720000000000001</v>
+        <v>6.8120000000000003</v>
       </c>
       <c r="B33">
-        <v>13.04</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>14.9</v>
       </c>
       <c r="D33">
-        <v>304500</v>
+        <v>737100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5.95</v>
+        <v>7.024</v>
       </c>
       <c r="B34">
-        <v>27.71</v>
+        <v>1.98</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>18.3</v>
       </c>
       <c r="D34">
-        <v>277200</v>
+        <v>732900</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5.7009999999999996</v>
+        <v>7.1849999999999996</v>
       </c>
       <c r="B35">
-        <v>18.350000000000001</v>
+        <v>5.39</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>15.2</v>
       </c>
       <c r="D35">
-        <v>275100</v>
+        <v>732900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>6.0960000000000001</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="B36">
-        <v>20.34</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>283500</v>
+        <v>732900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5.9329999999999998</v>
+        <v>7.1849999999999996</v>
       </c>
       <c r="B37">
-        <v>9.68</v>
+        <v>4.03</v>
       </c>
       <c r="C37">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="D37">
-        <v>396900</v>
+        <v>728700</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5.8410000000000002</v>
+        <v>7.274</v>
       </c>
       <c r="B38">
-        <v>11.41</v>
+        <v>6.62</v>
       </c>
       <c r="C38">
-        <v>19.2</v>
+        <v>12.6</v>
       </c>
       <c r="D38">
-        <v>420000</v>
+        <v>726600</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5.85</v>
+        <v>7.2030000000000003</v>
       </c>
       <c r="B39">
-        <v>8.77</v>
+        <v>9.59</v>
       </c>
       <c r="C39">
-        <v>19.2</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>441000</v>
+        <v>709800</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5.9660000000000002</v>
+        <v>6.9980000000000002</v>
       </c>
       <c r="B40">
-        <v>10.130000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="C40">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="D40">
-        <v>518700</v>
+        <v>701400</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>6.5949999999999998</v>
+        <v>7.42</v>
       </c>
       <c r="B41">
-        <v>4.32</v>
+        <v>6.47</v>
       </c>
       <c r="C41">
-        <v>18.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D41">
-        <v>646800</v>
+        <v>701400</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>7.024</v>
+        <v>7.2869999999999999</v>
       </c>
       <c r="B42">
-        <v>1.98</v>
+        <v>4.08</v>
       </c>
       <c r="C42">
-        <v>18.3</v>
+        <v>12.6</v>
       </c>
       <c r="D42">
-        <v>732900</v>
+        <v>699300</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6.77</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="B43">
-        <v>4.84</v>
+        <v>6.19</v>
       </c>
       <c r="C43">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>558600</v>
+        <v>697200</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>6.1689999999999996</v>
+        <v>7.2670000000000003</v>
       </c>
       <c r="B44">
-        <v>5.81</v>
+        <v>6.05</v>
       </c>
       <c r="C44">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D44">
-        <v>531300</v>
+        <v>697200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>6.2110000000000003</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="B45">
-        <v>7.44</v>
+        <v>4.16</v>
       </c>
       <c r="C45">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D45">
-        <v>518700</v>
+        <v>695100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>6.069</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="B46">
-        <v>9.5500000000000007</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="C46">
-        <v>17.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D46">
-        <v>445200</v>
+        <v>695100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5.6820000000000004</v>
+        <v>7.1040000000000001</v>
       </c>
       <c r="B47">
-        <v>10.210000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C47">
-        <v>17.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D47">
-        <v>405300</v>
+        <v>693000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5.7859999999999996</v>
+        <v>7.1349999999999998</v>
       </c>
       <c r="B48">
-        <v>14.15</v>
+        <v>4.45</v>
       </c>
       <c r="C48">
-        <v>17.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>420000</v>
+        <v>690900</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6.03</v>
+        <v>7.2409999999999997</v>
       </c>
       <c r="B49">
-        <v>18.8</v>
+        <v>5.49</v>
       </c>
       <c r="C49">
-        <v>17.899999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="D49">
-        <v>348600</v>
+        <v>686700</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5.399</v>
+        <v>6.5629999999999997</v>
       </c>
       <c r="B50">
-        <v>30.81</v>
+        <v>5.68</v>
       </c>
       <c r="C50">
-        <v>17.899999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="D50">
-        <v>302400</v>
+        <v>682500</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5.6020000000000003</v>
+        <v>6.758</v>
       </c>
       <c r="B51">
-        <v>16.2</v>
+        <v>3.53</v>
       </c>
       <c r="C51">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D51">
-        <v>407400</v>
+        <v>680400</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5.9630000000000001</v>
+        <v>7.0880000000000001</v>
       </c>
       <c r="B52">
-        <v>13.45</v>
+        <v>7.85</v>
       </c>
       <c r="C52">
-        <v>16.8</v>
+        <v>15.3</v>
       </c>
       <c r="D52">
-        <v>413700</v>
+        <v>676200</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>6.1150000000000002</v>
+        <v>6.782</v>
       </c>
       <c r="B53">
-        <v>9.43</v>
+        <v>6.68</v>
       </c>
       <c r="C53">
-        <v>16.8</v>
+        <v>15.2</v>
       </c>
       <c r="D53">
-        <v>430500</v>
+        <v>672000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>6.5110000000000001</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="B54">
-        <v>5.28</v>
+        <v>2.98</v>
       </c>
       <c r="C54">
-        <v>16.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D54">
-        <v>525000</v>
+        <v>672000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5.9980000000000002</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="B55">
-        <v>8.43</v>
+        <v>5.25</v>
       </c>
       <c r="C55">
-        <v>16.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D55">
-        <v>491400</v>
+        <v>665700</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5.8879999999999999</v>
+        <v>6.8159999999999998</v>
       </c>
       <c r="B56">
-        <v>14.8</v>
+        <v>3.95</v>
       </c>
       <c r="C56">
-        <v>21.1</v>
+        <v>15.1</v>
       </c>
       <c r="D56">
-        <v>396900</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7.2489999999999997</v>
+        <v>7.1630000000000003</v>
       </c>
       <c r="B57">
-        <v>4.8099999999999996</v>
+        <v>6.36</v>
       </c>
       <c r="C57">
-        <v>17.899999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D57">
-        <v>743400</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>6.383</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="B58">
-        <v>5.77</v>
+        <v>3.76</v>
       </c>
       <c r="C58">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D58">
-        <v>518700</v>
+        <v>661500</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>6.8159999999999998</v>
+        <v>7.3579999999999997</v>
       </c>
       <c r="B59">
-        <v>3.95</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C59">
-        <v>15.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D59">
-        <v>663600</v>
+        <v>661500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>6.1449999999999996</v>
+        <v>6.8739999999999997</v>
       </c>
       <c r="B60">
-        <v>6.86</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C60">
-        <v>19.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D60">
-        <v>489300</v>
+        <v>655200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5.9269999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="B61">
-        <v>9.2200000000000006</v>
+        <v>5.03</v>
       </c>
       <c r="C61">
-        <v>19.7</v>
+        <v>15.6</v>
       </c>
       <c r="D61">
-        <v>411600</v>
+        <v>653100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5.7409999999999997</v>
+        <v>7.327</v>
       </c>
       <c r="B62">
-        <v>13.15</v>
+        <v>11.25</v>
       </c>
       <c r="C62">
-        <v>19.7</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>392700</v>
+        <v>651000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5.9660000000000002</v>
+        <v>6.5949999999999998</v>
       </c>
       <c r="B63">
-        <v>14.44</v>
+        <v>4.32</v>
       </c>
       <c r="C63">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
       <c r="D63">
-        <v>336000</v>
+        <v>646800</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>6.4560000000000004</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="B64">
-        <v>6.73</v>
+        <v>14.79</v>
       </c>
       <c r="C64">
-        <v>19.7</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>466200</v>
+        <v>644700</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>6.7619999999999996</v>
+        <v>6.7389999999999999</v>
       </c>
       <c r="B65">
-        <v>9.5</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C65">
-        <v>19.7</v>
+        <v>15.2</v>
       </c>
       <c r="D65">
-        <v>525000</v>
+        <v>640500</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>7.1040000000000001</v>
+        <v>7.1070000000000002</v>
       </c>
       <c r="B66">
-        <v>8.0500000000000007</v>
+        <v>8.61</v>
       </c>
       <c r="C66">
-        <v>18.600000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="D66">
-        <v>693000</v>
+        <v>636300</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>6.29</v>
+        <v>6.6180000000000003</v>
       </c>
       <c r="B67">
-        <v>4.67</v>
+        <v>7.6</v>
       </c>
       <c r="C67">
-        <v>16.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D67">
-        <v>493500</v>
+        <v>632100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5.7869999999999999</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="B68">
-        <v>10.24</v>
+        <v>6.9</v>
       </c>
       <c r="C68">
-        <v>16.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>407400</v>
+        <v>632100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5.8780000000000001</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="B69">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="C69">
-        <v>18.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>462000</v>
+        <v>632100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5.5940000000000003</v>
+        <v>6.86</v>
       </c>
       <c r="B70">
-        <v>13.09</v>
+        <v>6.92</v>
       </c>
       <c r="C70">
-        <v>18.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D70">
-        <v>365400</v>
+        <v>627900</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>5.8849999999999998</v>
+        <v>6.556</v>
       </c>
       <c r="B71">
-        <v>8.7899999999999991</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C71">
-        <v>18.899999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="D71">
-        <v>438900</v>
+        <v>625800</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>6.4169999999999998</v>
+        <v>6.98</v>
       </c>
       <c r="B72">
-        <v>6.72</v>
+        <v>11.66</v>
       </c>
       <c r="C72">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D72">
-        <v>508200</v>
+        <v>625800</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5.9610000000000003</v>
+        <v>6.1529999999999996</v>
       </c>
       <c r="B73">
-        <v>9.8800000000000008</v>
+        <v>13.15</v>
       </c>
       <c r="C73">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="D73">
-        <v>455700</v>
+        <v>621600</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>6.0650000000000004</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="B74">
-        <v>5.52</v>
+        <v>3.53</v>
       </c>
       <c r="C74">
-        <v>19.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D74">
-        <v>478800</v>
+        <v>621600</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>6.2450000000000001</v>
+        <v>6.5460000000000003</v>
       </c>
       <c r="B75">
-        <v>7.54</v>
+        <v>5.33</v>
       </c>
       <c r="C75">
-        <v>19.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D75">
-        <v>491400</v>
+        <v>617400</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>6.2729999999999997</v>
+        <v>6.6040000000000001</v>
       </c>
       <c r="B76">
-        <v>6.78</v>
+        <v>4.38</v>
       </c>
       <c r="C76">
-        <v>18.7</v>
+        <v>15.6</v>
       </c>
       <c r="D76">
-        <v>506100</v>
+        <v>611100</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6.2859999999999996</v>
+        <v>6.4820000000000002</v>
       </c>
       <c r="B77">
-        <v>8.94</v>
+        <v>7.19</v>
       </c>
       <c r="C77">
-        <v>18.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D77">
-        <v>449400</v>
+        <v>611100</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>6.2789999999999999</v>
+        <v>6.726</v>
       </c>
       <c r="B78">
-        <v>11.97</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C78">
-        <v>18.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D78">
-        <v>420000</v>
+        <v>609000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6.14</v>
+        <v>7.0410000000000004</v>
       </c>
       <c r="B79">
-        <v>10.27</v>
+        <v>4.74</v>
       </c>
       <c r="C79">
-        <v>18.7</v>
+        <v>14.8</v>
       </c>
       <c r="D79">
-        <v>436800</v>
+        <v>609000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6.2320000000000002</v>
+        <v>6.43</v>
       </c>
       <c r="B80">
-        <v>12.34</v>
+        <v>5.21</v>
       </c>
       <c r="C80">
         <v>18.7</v>
       </c>
       <c r="D80">
-        <v>445200</v>
+        <v>602700</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>5.8739999999999997</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="B81">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="C81">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
       <c r="D81">
-        <v>426300</v>
+        <v>602700</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6.7270000000000003</v>
+        <v>6.6420000000000003</v>
       </c>
       <c r="B82">
-        <v>5.29</v>
+        <v>9.69</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D82">
-        <v>588000</v>
+        <v>602700</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6.6189999999999998</v>
+        <v>6.6779999999999999</v>
       </c>
       <c r="B83">
-        <v>7.22</v>
+        <v>6.27</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>501900</v>
+        <v>600600</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6.3019999999999996</v>
+        <v>6.8609999999999998</v>
       </c>
       <c r="B84">
-        <v>6.72</v>
+        <v>3.33</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D84">
-        <v>520800</v>
+        <v>598500</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6.1669999999999998</v>
+        <v>6.625</v>
       </c>
       <c r="B85">
-        <v>7.51</v>
+        <v>6.65</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>480900</v>
+        <v>596400</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6.3890000000000002</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="B86">
-        <v>9.6199999999999992</v>
+        <v>8.93</v>
       </c>
       <c r="C86">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D86">
-        <v>501900</v>
+        <v>596400</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6.63</v>
+        <v>6.8490000000000002</v>
       </c>
       <c r="B87">
-        <v>6.53</v>
+        <v>7.53</v>
       </c>
       <c r="C87">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D87">
-        <v>558600</v>
+        <v>592200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6.0149999999999997</v>
+        <v>6.375</v>
       </c>
       <c r="B88">
-        <v>12.86</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="C88">
-        <v>18.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D88">
-        <v>472500</v>
+        <v>590100</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6.1210000000000004</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="B89">
-        <v>8.44</v>
+        <v>5.29</v>
       </c>
       <c r="C89">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D89">
-        <v>466200</v>
+        <v>588000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>7.0069999999999997</v>
+        <v>6.63</v>
       </c>
       <c r="B90">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="C90">
-        <v>17.8</v>
+        <v>19.2</v>
       </c>
       <c r="D90">
-        <v>495600</v>
+        <v>585900</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>7.0789999999999997</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="B91">
-        <v>5.7</v>
+        <v>12.13</v>
       </c>
       <c r="C91">
-        <v>17.8</v>
+        <v>20.2</v>
       </c>
       <c r="D91">
-        <v>602700</v>
+        <v>585900</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6.4169999999999998</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="B92">
-        <v>8.81</v>
+        <v>9.42</v>
       </c>
       <c r="C92">
-        <v>17.8</v>
+        <v>20.9</v>
       </c>
       <c r="D92">
-        <v>474600</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6.4050000000000002</v>
+        <v>6.8789999999999996</v>
       </c>
       <c r="B93">
-        <v>8.1999999999999993</v>
+        <v>9.93</v>
       </c>
       <c r="C93">
-        <v>17.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D93">
-        <v>462000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6.4420000000000002</v>
+        <v>3.5609999999999999</v>
       </c>
       <c r="B94">
-        <v>8.16</v>
+        <v>7.12</v>
       </c>
       <c r="C94">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="D94">
-        <v>480900</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>6.2110000000000003</v>
+        <v>6.8520000000000003</v>
       </c>
       <c r="B95">
-        <v>6.21</v>
+        <v>19.78</v>
       </c>
       <c r="C95">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="D95">
-        <v>525000</v>
+        <v>577500</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>6.2489999999999997</v>
+        <v>6.1719999999999997</v>
       </c>
       <c r="B96">
-        <v>10.59</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="C96">
-        <v>18.2</v>
+        <v>15.2</v>
       </c>
       <c r="D96">
-        <v>432600</v>
+        <v>569100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>6.625</v>
+        <v>6.5490000000000004</v>
       </c>
       <c r="B97">
-        <v>6.65</v>
+        <v>7.39</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>596400</v>
+        <v>569100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>6.1630000000000003</v>
+        <v>6.25</v>
       </c>
       <c r="B98">
-        <v>11.34</v>
+        <v>5.5</v>
       </c>
       <c r="C98">
-        <v>18</v>
+        <v>14.7</v>
       </c>
       <c r="D98">
-        <v>449400</v>
+        <v>567000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>8.0690000000000008</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="B99">
-        <v>4.21</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D99">
-        <v>812700</v>
+        <v>560700</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>7.82</v>
+        <v>6.77</v>
       </c>
       <c r="B100">
-        <v>3.57</v>
+        <v>4.84</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D100">
-        <v>919800</v>
+        <v>558600</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>7.4160000000000004</v>
+        <v>6.63</v>
       </c>
       <c r="B101">
-        <v>6.19</v>
+        <v>6.53</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="D101">
-        <v>697200</v>
+        <v>558600</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6.7270000000000003</v>
+        <v>6.9390000000000001</v>
       </c>
       <c r="B102">
-        <v>9.42</v>
+        <v>5.89</v>
       </c>
       <c r="C102">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="D102">
-        <v>577500</v>
+        <v>558600</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1818,811 +1832,811 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>6.4050000000000002</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="B104">
-        <v>10.63</v>
+        <v>13.98</v>
       </c>
       <c r="C104">
-        <v>20.9</v>
+        <v>17.8</v>
       </c>
       <c r="D104">
-        <v>390600</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>6.1369999999999996</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="B105">
-        <v>13.44</v>
+        <v>8.67</v>
       </c>
       <c r="C105">
-        <v>20.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D105">
-        <v>405300</v>
+        <v>554400</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>6.1669999999999998</v>
+        <v>6.718</v>
       </c>
       <c r="B106">
-        <v>12.33</v>
+        <v>6.56</v>
       </c>
       <c r="C106">
-        <v>20.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D106">
-        <v>422100</v>
+        <v>550200</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>5.851</v>
+        <v>6.1689999999999996</v>
       </c>
       <c r="B107">
-        <v>16.47</v>
+        <v>5.81</v>
       </c>
       <c r="C107">
-        <v>20.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D107">
-        <v>409500</v>
+        <v>531300</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>5.8360000000000003</v>
+        <v>6.24</v>
       </c>
       <c r="B108">
-        <v>18.66</v>
+        <v>6.59</v>
       </c>
       <c r="C108">
-        <v>20.9</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D108">
-        <v>409500</v>
+        <v>529200</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>6.1269999999999998</v>
+        <v>6.6310000000000002</v>
       </c>
       <c r="B109">
-        <v>14.09</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="C109">
-        <v>20.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D109">
-        <v>428400</v>
+        <v>527100</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>6.4740000000000002</v>
+        <v>6.5110000000000001</v>
       </c>
       <c r="B110">
-        <v>12.27</v>
+        <v>5.28</v>
       </c>
       <c r="C110">
-        <v>20.9</v>
+        <v>16.8</v>
       </c>
       <c r="D110">
-        <v>415800</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>6.2290000000000001</v>
+        <v>6.7619999999999996</v>
       </c>
       <c r="B111">
-        <v>15.55</v>
+        <v>9.5</v>
       </c>
       <c r="C111">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="D111">
-        <v>407400</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>6.1950000000000003</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="B112">
-        <v>13</v>
+        <v>6.21</v>
       </c>
       <c r="C112">
-        <v>20.9</v>
+        <v>18.2</v>
       </c>
       <c r="D112">
-        <v>455700</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>6.7149999999999999</v>
+        <v>6.101</v>
       </c>
       <c r="B113">
-        <v>10.16</v>
+        <v>9.81</v>
       </c>
       <c r="C113">
-        <v>17.8</v>
+        <v>14.7</v>
       </c>
       <c r="D113">
-        <v>478800</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>5.9130000000000003</v>
+        <v>6.1820000000000004</v>
       </c>
       <c r="B114">
-        <v>16.21</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="C114">
-        <v>17.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D114">
-        <v>394800</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6.0919999999999996</v>
+        <v>6.415</v>
       </c>
       <c r="B115">
-        <v>17.09</v>
+        <v>6.12</v>
       </c>
       <c r="C115">
-        <v>17.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D115">
-        <v>392700</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>6.2539999999999996</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="B116">
-        <v>10.45</v>
+        <v>7.79</v>
       </c>
       <c r="C116">
-        <v>17.8</v>
+        <v>20.2</v>
       </c>
       <c r="D116">
-        <v>388500</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>5.9279999999999999</v>
+        <v>7.0609999999999999</v>
       </c>
       <c r="B117">
-        <v>15.76</v>
+        <v>7.01</v>
       </c>
       <c r="C117">
-        <v>17.8</v>
+        <v>20.2</v>
       </c>
       <c r="D117">
-        <v>384300</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>6.1760000000000002</v>
+        <v>6.3019999999999996</v>
       </c>
       <c r="B118">
-        <v>12.04</v>
+        <v>6.72</v>
       </c>
       <c r="C118">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>445200</v>
+        <v>520800</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>6.0209999999999999</v>
+        <v>6.4379999999999997</v>
       </c>
       <c r="B119">
-        <v>10.3</v>
+        <v>3.59</v>
       </c>
       <c r="C119">
-        <v>17.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D119">
-        <v>403200</v>
+        <v>520800</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>5.8719999999999999</v>
+        <v>6.5650000000000004</v>
       </c>
       <c r="B120">
-        <v>15.37</v>
+        <v>9.51</v>
       </c>
       <c r="C120">
-        <v>17.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D120">
-        <v>428400</v>
+        <v>520800</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>5.7309999999999999</v>
+        <v>6.8710000000000004</v>
       </c>
       <c r="B121">
-        <v>13.61</v>
+        <v>6.07</v>
       </c>
       <c r="C121">
-        <v>17.8</v>
+        <v>14.8</v>
       </c>
       <c r="D121">
-        <v>405300</v>
+        <v>520800</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>5.87</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="B122">
-        <v>14.37</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="C122">
-        <v>19.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D122">
-        <v>462000</v>
+        <v>518700</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>6.0039999999999996</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="B123">
-        <v>14.27</v>
+        <v>7.44</v>
       </c>
       <c r="C123">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D123">
-        <v>426300</v>
+        <v>518700</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>5.9610000000000003</v>
+        <v>6.383</v>
       </c>
       <c r="B124">
-        <v>17.93</v>
+        <v>5.77</v>
       </c>
       <c r="C124">
-        <v>19.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="D124">
-        <v>430500</v>
+        <v>518700</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>5.8559999999999999</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="B125">
-        <v>25.41</v>
+        <v>6.29</v>
       </c>
       <c r="C125">
-        <v>19.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D125">
-        <v>363300</v>
+        <v>516600</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>5.8789999999999996</v>
+        <v>6.431</v>
       </c>
       <c r="B126">
-        <v>17.579999999999998</v>
+        <v>5.08</v>
       </c>
       <c r="C126">
-        <v>19.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D126">
-        <v>394800</v>
+        <v>516600</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>5.9859999999999998</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="B127">
-        <v>14.81</v>
+        <v>9.52</v>
       </c>
       <c r="C127">
         <v>19.100000000000001</v>
       </c>
       <c r="D127">
-        <v>449400</v>
+        <v>514500</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>5.6130000000000004</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="B128">
-        <v>27.26</v>
+        <v>5.99</v>
       </c>
       <c r="C128">
-        <v>19.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="D128">
-        <v>329700</v>
+        <v>514500</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>5.6929999999999996</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="B129">
-        <v>17.190000000000001</v>
+        <v>13.59</v>
       </c>
       <c r="C129">
-        <v>21.2</v>
+        <v>19.2</v>
       </c>
       <c r="D129">
-        <v>340200</v>
+        <v>514500</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>6.431</v>
+        <v>6.3259999999999996</v>
       </c>
       <c r="B130">
-        <v>15.39</v>
+        <v>10.97</v>
       </c>
       <c r="C130">
-        <v>21.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D130">
-        <v>378000</v>
+        <v>512400</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>5.6369999999999996</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="B131">
-        <v>18.34</v>
+        <v>14.66</v>
       </c>
       <c r="C131">
-        <v>21.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D131">
-        <v>300300</v>
+        <v>512400</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6.4580000000000002</v>
+        <v>6.4870000000000001</v>
       </c>
       <c r="B132">
-        <v>12.6</v>
+        <v>5.9</v>
       </c>
       <c r="C132">
-        <v>21.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D132">
-        <v>403200</v>
+        <v>512400</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6.3259999999999996</v>
+        <v>6.5380000000000003</v>
       </c>
       <c r="B133">
-        <v>12.26</v>
+        <v>7.73</v>
       </c>
       <c r="C133">
-        <v>21.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D133">
-        <v>411600</v>
+        <v>512400</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>6.3719999999999999</v>
+        <v>6.0659999999999998</v>
       </c>
       <c r="B134">
-        <v>11.12</v>
+        <v>6.43</v>
       </c>
       <c r="C134">
-        <v>21.2</v>
+        <v>14.7</v>
       </c>
       <c r="D134">
-        <v>483000</v>
+        <v>510300</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>5.8220000000000001</v>
+        <v>5.9809999999999999</v>
       </c>
       <c r="B135">
-        <v>15.03</v>
+        <v>11.65</v>
       </c>
       <c r="C135">
-        <v>21.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D135">
-        <v>386400</v>
+        <v>510300</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>5.7569999999999997</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="B136">
-        <v>17.309999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="C136">
-        <v>21.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D136">
-        <v>327600</v>
+        <v>510300</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>6.335</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="B137">
-        <v>16.96</v>
+        <v>6.72</v>
       </c>
       <c r="C137">
-        <v>21.2</v>
+        <v>19.2</v>
       </c>
       <c r="D137">
-        <v>380100</v>
+        <v>508200</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>5.9420000000000002</v>
+        <v>6.2729999999999997</v>
       </c>
       <c r="B138">
-        <v>16.899999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="C138">
-        <v>21.2</v>
+        <v>18.7</v>
       </c>
       <c r="D138">
-        <v>365400</v>
+        <v>506100</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>6.4539999999999997</v>
+        <v>6.1619999999999999</v>
       </c>
       <c r="B139">
-        <v>14.59</v>
+        <v>7.43</v>
       </c>
       <c r="C139">
-        <v>21.2</v>
+        <v>14.7</v>
       </c>
       <c r="D139">
-        <v>359100</v>
+        <v>506100</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>5.8570000000000002</v>
+        <v>6.5789999999999997</v>
       </c>
       <c r="B140">
-        <v>21.32</v>
+        <v>5.49</v>
       </c>
       <c r="C140">
-        <v>21.2</v>
+        <v>18.3</v>
       </c>
       <c r="D140">
-        <v>279300</v>
+        <v>506100</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>6.1509999999999998</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="B141">
-        <v>18.46</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C141">
-        <v>21.2</v>
+        <v>15.3</v>
       </c>
       <c r="D141">
-        <v>373800</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>6.1740000000000004</v>
+        <v>6.0860000000000003</v>
       </c>
       <c r="B142">
-        <v>24.16</v>
+        <v>10.88</v>
       </c>
       <c r="C142">
-        <v>21.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D142">
-        <v>294000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>5.0190000000000001</v>
+        <v>6.6189999999999998</v>
       </c>
       <c r="B143">
-        <v>34.409999999999997</v>
+        <v>7.22</v>
       </c>
       <c r="C143">
-        <v>21.2</v>
+        <v>19</v>
       </c>
       <c r="D143">
-        <v>302400</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>5.4029999999999996</v>
+        <v>6.3890000000000002</v>
       </c>
       <c r="B144">
-        <v>26.82</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="C144">
-        <v>14.7</v>
+        <v>18.5</v>
       </c>
       <c r="D144">
-        <v>281400</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>5.468</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="B145">
-        <v>26.42</v>
+        <v>8.58</v>
       </c>
       <c r="C145">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>327600</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>4.9029999999999996</v>
+        <v>6.6959999999999997</v>
       </c>
       <c r="B146">
-        <v>29.29</v>
+        <v>7.18</v>
       </c>
       <c r="C146">
-        <v>14.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D146">
-        <v>247800</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>6.13</v>
+        <v>6.976</v>
       </c>
       <c r="B147">
-        <v>27.8</v>
+        <v>5.64</v>
       </c>
       <c r="C147">
-        <v>14.7</v>
+        <v>21</v>
       </c>
       <c r="D147">
-        <v>289800</v>
+        <v>501900</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>5.6280000000000001</v>
+        <v>5.8769999999999998</v>
       </c>
       <c r="B148">
-        <v>16.649999999999999</v>
+        <v>12.14</v>
       </c>
       <c r="C148">
         <v>14.7</v>
       </c>
       <c r="D148">
-        <v>327600</v>
+        <v>499800</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>4.9260000000000002</v>
+        <v>6.319</v>
       </c>
       <c r="B149">
-        <v>29.53</v>
+        <v>11.1</v>
       </c>
       <c r="C149">
         <v>14.7</v>
       </c>
       <c r="D149">
-        <v>306600</v>
+        <v>499800</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>5.1859999999999999</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="B150">
-        <v>28.32</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="C150">
-        <v>14.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D150">
-        <v>373800</v>
+        <v>499800</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>5.5970000000000004</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="B151">
-        <v>21.45</v>
+        <v>7.2</v>
       </c>
       <c r="C151">
-        <v>14.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D151">
-        <v>323400</v>
+        <v>499800</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>6.1219999999999999</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="B152">
-        <v>14.1</v>
+        <v>29.55</v>
       </c>
       <c r="C152">
-        <v>14.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D152">
-        <v>451500</v>
+        <v>497700</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>5.4039999999999999</v>
+        <v>6.4809999999999999</v>
       </c>
       <c r="B153">
-        <v>13.28</v>
+        <v>6.36</v>
       </c>
       <c r="C153">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D153">
-        <v>411600</v>
+        <v>497700</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>5.0119999999999996</v>
+        <v>6.3929999999999998</v>
       </c>
       <c r="B154">
-        <v>12.12</v>
+        <v>5.19</v>
       </c>
       <c r="C154">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D154">
-        <v>321300</v>
+        <v>497700</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>5.7089999999999996</v>
+        <v>6.75</v>
       </c>
       <c r="B155">
-        <v>15.79</v>
+        <v>7.74</v>
       </c>
       <c r="C155">
-        <v>14.7</v>
+        <v>20.2</v>
       </c>
       <c r="D155">
-        <v>407400</v>
+        <v>497700</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>6.1289999999999996</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="B156">
-        <v>15.12</v>
+        <v>5.5</v>
       </c>
       <c r="C156">
-        <v>14.7</v>
+        <v>17.8</v>
       </c>
       <c r="D156">
-        <v>357000</v>
+        <v>495600</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>6.1520000000000001</v>
+        <v>6.4160000000000004</v>
       </c>
       <c r="B157">
-        <v>15.02</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="C157">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D157">
-        <v>327600</v>
+        <v>495600</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>5.2720000000000002</v>
+        <v>6.29</v>
       </c>
       <c r="B158">
-        <v>16.14</v>
+        <v>4.67</v>
       </c>
       <c r="C158">
-        <v>14.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D158">
-        <v>275100</v>
+        <v>493500</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>6.9429999999999996</v>
+        <v>5.9980000000000002</v>
       </c>
       <c r="B159">
-        <v>4.59</v>
+        <v>8.43</v>
       </c>
       <c r="C159">
-        <v>14.7</v>
+        <v>16.8</v>
       </c>
       <c r="D159">
-        <v>867300</v>
+        <v>491400</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>6.0659999999999998</v>
+        <v>6.2450000000000001</v>
       </c>
       <c r="B160">
-        <v>6.43</v>
+        <v>7.54</v>
       </c>
       <c r="C160">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="D160">
-        <v>510300</v>
+        <v>491400</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>6.51</v>
+        <v>6.1449999999999996</v>
       </c>
       <c r="B161">
-        <v>7.39</v>
+        <v>6.86</v>
       </c>
       <c r="C161">
-        <v>14.7</v>
+        <v>19.7</v>
       </c>
       <c r="D161">
         <v>489300</v>
@@ -2630,114 +2644,114 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>6.25</v>
+        <v>6.51</v>
       </c>
       <c r="B162">
-        <v>5.5</v>
+        <v>7.39</v>
       </c>
       <c r="C162">
         <v>14.7</v>
       </c>
       <c r="D162">
-        <v>567000</v>
+        <v>489300</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>5.8540000000000001</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="B163">
-        <v>11.64</v>
+        <v>13.51</v>
       </c>
       <c r="C163">
-        <v>14.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D163">
-        <v>476700</v>
+        <v>489300</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>6.101</v>
+        <v>6.6059999999999999</v>
       </c>
       <c r="B164">
-        <v>9.81</v>
+        <v>7.37</v>
       </c>
       <c r="C164">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D164">
-        <v>525000</v>
+        <v>489300</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>5.8769999999999998</v>
+        <v>6.02</v>
       </c>
       <c r="B165">
-        <v>12.14</v>
+        <v>10.11</v>
       </c>
       <c r="C165">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D165">
-        <v>499800</v>
+        <v>487200</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>6.319</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="B166">
-        <v>11.1</v>
+        <v>7.14</v>
       </c>
       <c r="C166">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D166">
-        <v>499800</v>
+        <v>487200</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>6.4020000000000001</v>
+        <v>6.0510000000000002</v>
       </c>
       <c r="B167">
-        <v>11.32</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="C167">
-        <v>14.7</v>
+        <v>20.2</v>
       </c>
       <c r="D167">
-        <v>468300</v>
+        <v>487200</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>5.875</v>
+        <v>6.4370000000000003</v>
       </c>
       <c r="B168">
-        <v>14.43</v>
+        <v>14.36</v>
       </c>
       <c r="C168">
-        <v>14.7</v>
+        <v>20.2</v>
       </c>
       <c r="D168">
-        <v>365400</v>
+        <v>487200</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>5.88</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="B169">
-        <v>12.03</v>
+        <v>6.58</v>
       </c>
       <c r="C169">
-        <v>14.7</v>
+        <v>21</v>
       </c>
       <c r="D169">
-        <v>401100</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2756,1850 +2770,1850 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>6.4160000000000004</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="B171">
-        <v>9.0399999999999991</v>
+        <v>10.36</v>
       </c>
       <c r="C171">
-        <v>16.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D171">
-        <v>495600</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>5.859</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="B172">
-        <v>9.64</v>
+        <v>6.87</v>
       </c>
       <c r="C172">
-        <v>16.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D172">
-        <v>474600</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>6.5460000000000003</v>
+        <v>6.516</v>
       </c>
       <c r="B173">
-        <v>5.33</v>
+        <v>6.36</v>
       </c>
       <c r="C173">
-        <v>16.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D173">
-        <v>617400</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>6.02</v>
+        <v>3.863</v>
       </c>
       <c r="B174">
-        <v>10.11</v>
+        <v>13.33</v>
       </c>
       <c r="C174">
-        <v>16.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D174">
-        <v>487200</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>6.3150000000000004</v>
+        <v>5.67</v>
       </c>
       <c r="B175">
-        <v>6.29</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C175">
-        <v>16.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D175">
-        <v>516600</v>
+        <v>485100</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>6.86</v>
+        <v>6.3719999999999999</v>
       </c>
       <c r="B176">
-        <v>6.92</v>
+        <v>11.12</v>
       </c>
       <c r="C176">
-        <v>16.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="D176">
-        <v>627900</v>
+        <v>483000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>6.98</v>
+        <v>6.3730000000000002</v>
       </c>
       <c r="B177">
-        <v>5.04</v>
+        <v>10.5</v>
       </c>
       <c r="C177">
-        <v>17.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D177">
-        <v>781200</v>
+        <v>483000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>7.7649999999999997</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="B178">
-        <v>7.56</v>
+        <v>6.15</v>
       </c>
       <c r="C178">
-        <v>17.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D178">
-        <v>835800</v>
+        <v>483000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>6.1440000000000001</v>
+        <v>6.242</v>
       </c>
       <c r="B179">
-        <v>9.4499999999999993</v>
+        <v>10.74</v>
       </c>
       <c r="C179">
-        <v>17.8</v>
+        <v>20.2</v>
       </c>
       <c r="D179">
-        <v>760200</v>
+        <v>483000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>7.1550000000000002</v>
+        <v>6.0119999999999996</v>
       </c>
       <c r="B180">
-        <v>4.82</v>
+        <v>12.43</v>
       </c>
       <c r="C180">
-        <v>17.8</v>
+        <v>15.2</v>
       </c>
       <c r="D180">
-        <v>795900</v>
+        <v>480900</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>6.5629999999999997</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="B181">
-        <v>5.68</v>
+        <v>7.51</v>
       </c>
       <c r="C181">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="D181">
-        <v>682500</v>
+        <v>480900</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>5.6040000000000001</v>
+        <v>6.4420000000000002</v>
       </c>
       <c r="B182">
-        <v>13.98</v>
+        <v>8.16</v>
       </c>
       <c r="C182">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="D182">
-        <v>554400</v>
+        <v>480900</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>6.1529999999999996</v>
+        <v>6.49</v>
       </c>
       <c r="B183">
-        <v>13.15</v>
+        <v>5.98</v>
       </c>
       <c r="C183">
-        <v>17.8</v>
+        <v>19.7</v>
       </c>
       <c r="D183">
-        <v>621600</v>
+        <v>480900</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>6.782</v>
+        <v>6.0650000000000004</v>
       </c>
       <c r="B184">
-        <v>6.68</v>
+        <v>5.52</v>
       </c>
       <c r="C184">
-        <v>15.2</v>
+        <v>19.2</v>
       </c>
       <c r="D184">
-        <v>672000</v>
+        <v>478800</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>6.556</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="B185">
-        <v>4.5599999999999996</v>
+        <v>10.16</v>
       </c>
       <c r="C185">
-        <v>15.2</v>
+        <v>17.8</v>
       </c>
       <c r="D185">
-        <v>625800</v>
+        <v>478800</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>7.1849999999999996</v>
+        <v>5.56</v>
       </c>
       <c r="B186">
-        <v>5.39</v>
+        <v>10.45</v>
       </c>
       <c r="C186">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="D186">
-        <v>732900</v>
+        <v>478800</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>6.9509999999999996</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="B187">
-        <v>5.0999999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="C187">
-        <v>15.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D187">
-        <v>777000</v>
+        <v>478800</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>6.7389999999999999</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="B188">
-        <v>4.6900000000000004</v>
+        <v>11.64</v>
       </c>
       <c r="C188">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D188">
-        <v>640500</v>
+        <v>476700</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>7.1779999999999999</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="B189">
-        <v>2.87</v>
+        <v>11.48</v>
       </c>
       <c r="C189">
-        <v>15.2</v>
+        <v>20.2</v>
       </c>
       <c r="D189">
-        <v>764400</v>
+        <v>476700</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>6.8</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="B190">
-        <v>5.03</v>
+        <v>8.81</v>
       </c>
       <c r="C190">
-        <v>15.6</v>
+        <v>17.8</v>
       </c>
       <c r="D190">
-        <v>653100</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>6.6040000000000001</v>
+        <v>5.859</v>
       </c>
       <c r="B191">
-        <v>4.38</v>
+        <v>9.64</v>
       </c>
       <c r="C191">
-        <v>15.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D191">
-        <v>611100</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>7.2869999999999999</v>
+        <v>5.891</v>
       </c>
       <c r="B192">
-        <v>4.08</v>
+        <v>10.87</v>
       </c>
       <c r="C192">
-        <v>12.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D192">
-        <v>699300</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>7.1070000000000002</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="B193">
-        <v>8.61</v>
+        <v>7.34</v>
       </c>
       <c r="C193">
-        <v>12.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D193">
-        <v>636300</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>7.274</v>
+        <v>6.1120000000000001</v>
       </c>
       <c r="B194">
-        <v>6.62</v>
+        <v>12.67</v>
       </c>
       <c r="C194">
-        <v>12.6</v>
+        <v>20.2</v>
       </c>
       <c r="D194">
-        <v>726600</v>
+        <v>474600</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>6.9749999999999996</v>
+        <v>6.0149999999999997</v>
       </c>
       <c r="B195">
-        <v>4.5599999999999996</v>
+        <v>12.86</v>
       </c>
       <c r="C195">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="D195">
-        <v>732900</v>
+        <v>472500</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>7.1349999999999998</v>
+        <v>5.7830000000000004</v>
       </c>
       <c r="B196">
-        <v>4.45</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C196">
-        <v>17</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D196">
-        <v>690900</v>
+        <v>472500</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>6.1619999999999999</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="B197">
-        <v>7.43</v>
+        <v>4.97</v>
       </c>
       <c r="C197">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D197">
-        <v>506100</v>
+        <v>472500</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>7.61</v>
+        <v>5.8070000000000004</v>
       </c>
       <c r="B198">
-        <v>3.11</v>
+        <v>16.03</v>
       </c>
       <c r="C198">
-        <v>14.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D198">
-        <v>888300</v>
+        <v>470400</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>7.8529999999999998</v>
+        <v>6.593</v>
       </c>
       <c r="B199">
-        <v>3.81</v>
+        <v>9.67</v>
       </c>
       <c r="C199">
-        <v>14.7</v>
+        <v>21</v>
       </c>
       <c r="D199">
-        <v>1018500</v>
+        <v>470400</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>5.891</v>
+        <v>6.4020000000000001</v>
       </c>
       <c r="B200">
-        <v>10.87</v>
+        <v>11.32</v>
       </c>
       <c r="C200">
-        <v>18.600000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="D200">
-        <v>474600</v>
+        <v>468300</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>6.3259999999999996</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="B201">
-        <v>10.97</v>
+        <v>7.6</v>
       </c>
       <c r="C201">
-        <v>18.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D201">
-        <v>512400</v>
+        <v>468300</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>5.7830000000000004</v>
+        <v>6.4560000000000004</v>
       </c>
       <c r="B202">
-        <v>18.059999999999999</v>
+        <v>6.73</v>
       </c>
       <c r="C202">
-        <v>18.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="D202">
-        <v>472500</v>
+        <v>466200</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>6.0640000000000001</v>
+        <v>6.1210000000000004</v>
       </c>
       <c r="B203">
-        <v>14.66</v>
+        <v>8.44</v>
       </c>
       <c r="C203">
-        <v>18.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="D203">
-        <v>512400</v>
+        <v>466200</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>5.3440000000000003</v>
+        <v>6.3579999999999997</v>
       </c>
       <c r="B204">
-        <v>23.09</v>
+        <v>11.22</v>
       </c>
       <c r="C204">
-        <v>18.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D204">
-        <v>420000</v>
+        <v>466200</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>5.96</v>
+        <v>6.0830000000000002</v>
       </c>
       <c r="B205">
-        <v>17.27</v>
+        <v>12.79</v>
       </c>
       <c r="C205">
-        <v>18.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D205">
-        <v>455700</v>
+        <v>466200</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>5.4039999999999999</v>
+        <v>6.3159999999999998</v>
       </c>
       <c r="B206">
-        <v>23.98</v>
+        <v>5.68</v>
       </c>
       <c r="C206">
-        <v>18.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D206">
-        <v>405300</v>
+        <v>466200</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>5.8070000000000004</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="B207">
-        <v>16.03</v>
+        <v>5.98</v>
       </c>
       <c r="C207">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D207">
-        <v>470400</v>
+        <v>464100</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>6.375</v>
+        <v>5.8780000000000001</v>
       </c>
       <c r="B208">
-        <v>9.3800000000000008</v>
+        <v>8.1</v>
       </c>
       <c r="C208">
-        <v>18.600000000000001</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D208">
-        <v>590100</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>5.4119999999999999</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="B209">
-        <v>29.55</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C209">
-        <v>18.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D209">
-        <v>497700</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>6.1820000000000004</v>
+        <v>5.87</v>
       </c>
       <c r="B210">
-        <v>9.4700000000000006</v>
+        <v>14.37</v>
       </c>
       <c r="C210">
-        <v>18.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D210">
-        <v>525000</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>5.8879999999999999</v>
+        <v>6.8970000000000002</v>
       </c>
       <c r="B211">
-        <v>13.51</v>
+        <v>11.38</v>
       </c>
       <c r="C211">
-        <v>16.399999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D211">
-        <v>489300</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>6.6420000000000003</v>
+        <v>6.4530000000000003</v>
       </c>
       <c r="B212">
-        <v>9.69</v>
+        <v>8.23</v>
       </c>
       <c r="C212">
-        <v>16.399999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="D212">
-        <v>602700</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>5.9509999999999996</v>
+        <v>6.59</v>
       </c>
       <c r="B213">
-        <v>17.920000000000002</v>
+        <v>9.5</v>
       </c>
       <c r="C213">
-        <v>16.399999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D213">
-        <v>451500</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>6.3730000000000002</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="B214">
-        <v>10.5</v>
+        <v>6.48</v>
       </c>
       <c r="C214">
-        <v>16.399999999999999</v>
+        <v>21</v>
       </c>
       <c r="D214">
-        <v>483000</v>
+        <v>462000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>6.9509999999999996</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="B215">
-        <v>9.7100000000000009</v>
+        <v>6.57</v>
       </c>
       <c r="C215">
-        <v>17.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D215">
-        <v>560700</v>
+        <v>459900</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>6.1639999999999997</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="B216">
-        <v>21.46</v>
+        <v>14</v>
       </c>
       <c r="C216">
-        <v>17.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D216">
-        <v>455700</v>
+        <v>459900</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>6.8789999999999996</v>
+        <v>5.7619999999999996</v>
       </c>
       <c r="B217">
-        <v>9.93</v>
+        <v>10.42</v>
       </c>
       <c r="C217">
-        <v>17.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D217">
-        <v>577500</v>
+        <v>457800</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>6.6180000000000003</v>
+        <v>5.7069999999999999</v>
       </c>
       <c r="B218">
-        <v>7.6</v>
+        <v>12.01</v>
       </c>
       <c r="C218">
-        <v>17.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="D218">
-        <v>632100</v>
+        <v>457800</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>8.266</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="B219">
-        <v>4.1399999999999997</v>
+        <v>15.71</v>
       </c>
       <c r="C219">
-        <v>17.399999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="D219">
-        <v>940800</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>8.0399999999999991</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="B220">
-        <v>3.13</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C220">
-        <v>17.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="D220">
-        <v>789600</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>7.1630000000000003</v>
+        <v>6.1950000000000003</v>
       </c>
       <c r="B221">
-        <v>6.36</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>17.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="D221">
-        <v>663600</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>7.6859999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="B222">
-        <v>3.92</v>
+        <v>17.27</v>
       </c>
       <c r="C222">
-        <v>17.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D222">
-        <v>980700</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>6.5519999999999996</v>
+        <v>6.1639999999999997</v>
       </c>
       <c r="B223">
-        <v>3.76</v>
+        <v>21.46</v>
       </c>
       <c r="C223">
         <v>17.399999999999999</v>
       </c>
       <c r="D223">
-        <v>661500</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>5.9809999999999999</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="B224">
-        <v>11.65</v>
+        <v>10.4</v>
       </c>
       <c r="C224">
-        <v>17.399999999999999</v>
+        <v>16</v>
       </c>
       <c r="D224">
-        <v>510300</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>7.4119999999999999</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="B225">
-        <v>5.25</v>
+        <v>13.27</v>
       </c>
       <c r="C225">
-        <v>17.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D225">
-        <v>665700</v>
+        <v>455700</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>8.3369999999999997</v>
+        <v>6.4210000000000003</v>
       </c>
       <c r="B226">
-        <v>2.4700000000000002</v>
+        <v>9.14</v>
       </c>
       <c r="C226">
-        <v>17.399999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="D226">
-        <v>875700</v>
+        <v>453600</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>8.2469999999999999</v>
+        <v>6.266</v>
       </c>
       <c r="B227">
-        <v>3.95</v>
+        <v>7.9</v>
       </c>
       <c r="C227">
-        <v>17.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D227">
-        <v>1014300</v>
+        <v>453600</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>6.726</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="B228">
-        <v>8.0500000000000007</v>
+        <v>14.1</v>
       </c>
       <c r="C228">
-        <v>17.399999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="D228">
-        <v>609000</v>
+        <v>451500</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>6.0860000000000003</v>
+        <v>5.9509999999999996</v>
       </c>
       <c r="B229">
-        <v>10.88</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="C229">
-        <v>17.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D229">
-        <v>504000</v>
+        <v>451500</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>6.6310000000000002</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="B230">
-        <v>9.5399999999999991</v>
+        <v>8.94</v>
       </c>
       <c r="C230">
-        <v>17.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="D230">
-        <v>527100</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>7.3579999999999997</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="B231">
-        <v>4.7300000000000004</v>
+        <v>11.34</v>
       </c>
       <c r="C231">
-        <v>17.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="D231">
-        <v>661500</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>6.4809999999999999</v>
+        <v>5.9859999999999998</v>
       </c>
       <c r="B232">
-        <v>6.36</v>
+        <v>14.81</v>
       </c>
       <c r="C232">
-        <v>16.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D232">
-        <v>497700</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>6.6059999999999999</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="B233">
-        <v>7.37</v>
+        <v>13.22</v>
       </c>
       <c r="C233">
-        <v>16.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D233">
-        <v>489300</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>6.8970000000000002</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="B234">
-        <v>11.38</v>
+        <v>13.11</v>
       </c>
       <c r="C234">
-        <v>16.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D234">
-        <v>462000</v>
+        <v>449400</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>6.0949999999999998</v>
+        <v>6.069</v>
       </c>
       <c r="B235">
-        <v>12.4</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="C235">
-        <v>16.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D235">
-        <v>422100</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>6.3579999999999997</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="B236">
-        <v>11.22</v>
+        <v>12.34</v>
       </c>
       <c r="C236">
-        <v>16.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D236">
-        <v>466200</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>6.3929999999999998</v>
+        <v>6.1760000000000002</v>
       </c>
       <c r="B237">
-        <v>5.19</v>
+        <v>12.04</v>
       </c>
       <c r="C237">
-        <v>16.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D237">
-        <v>497700</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>5.593</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="B238">
-        <v>12.5</v>
+        <v>10.58</v>
       </c>
       <c r="C238">
-        <v>19.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D238">
-        <v>369600</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>5.6050000000000004</v>
+        <v>6.0190000000000001</v>
       </c>
       <c r="B239">
-        <v>18.46</v>
+        <v>12.92</v>
       </c>
       <c r="C239">
-        <v>19.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D239">
-        <v>388500</v>
+        <v>445200</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>6.1079999999999997</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="B240">
-        <v>9.16</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>19.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D240">
-        <v>510300</v>
+        <v>443100</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>6.226</v>
+        <v>6.0369999999999999</v>
       </c>
       <c r="B241">
-        <v>10.15</v>
+        <v>8.01</v>
       </c>
       <c r="C241">
-        <v>19.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D241">
-        <v>430500</v>
+        <v>443100</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>6.4329999999999998</v>
+        <v>6.6740000000000004</v>
       </c>
       <c r="B242">
-        <v>9.52</v>
+        <v>11.98</v>
       </c>
       <c r="C242">
-        <v>19.100000000000001</v>
+        <v>21</v>
       </c>
       <c r="D242">
-        <v>514500</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>6.718</v>
+        <v>5.85</v>
       </c>
       <c r="B243">
-        <v>6.56</v>
+        <v>8.77</v>
       </c>
       <c r="C243">
-        <v>19.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D243">
-        <v>550200</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>6.4870000000000001</v>
+        <v>6.1130000000000004</v>
       </c>
       <c r="B244">
-        <v>5.9</v>
+        <v>12.73</v>
       </c>
       <c r="C244">
-        <v>19.100000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D244">
-        <v>512400</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>6.4379999999999997</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="B245">
-        <v>3.59</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="C245">
-        <v>19.100000000000001</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D245">
-        <v>520800</v>
+        <v>438900</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>6.9569999999999999</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="B246">
-        <v>3.53</v>
+        <v>9.25</v>
       </c>
       <c r="C246">
-        <v>19.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D246">
-        <v>621600</v>
+        <v>438900</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>8.2590000000000003</v>
+        <v>6.14</v>
       </c>
       <c r="B247">
-        <v>3.54</v>
+        <v>10.27</v>
       </c>
       <c r="C247">
-        <v>19.100000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D247">
-        <v>898800</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>6.1079999999999997</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="B248">
-        <v>6.57</v>
+        <v>10.19</v>
       </c>
       <c r="C248">
-        <v>16.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D248">
-        <v>459900</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>5.8760000000000003</v>
+        <v>5.6479999999999997</v>
       </c>
       <c r="B249">
-        <v>9.25</v>
+        <v>14.1</v>
       </c>
       <c r="C249">
-        <v>16.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D249">
-        <v>438900</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>7.4539999999999997</v>
+        <v>5.92</v>
       </c>
       <c r="B250">
-        <v>3.11</v>
+        <v>13.65</v>
       </c>
       <c r="C250">
-        <v>15.9</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D250">
-        <v>924000</v>
+        <v>434700</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>7.3330000000000002</v>
+        <v>6.31</v>
       </c>
       <c r="B251">
-        <v>7.79</v>
+        <v>6.75</v>
       </c>
       <c r="C251">
-        <v>13</v>
+        <v>20.2</v>
       </c>
       <c r="D251">
-        <v>756000</v>
+        <v>434700</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>6.8419999999999996</v>
+        <v>6.2489999999999997</v>
       </c>
       <c r="B252">
-        <v>6.9</v>
+        <v>10.59</v>
       </c>
       <c r="C252">
-        <v>13</v>
+        <v>18.2</v>
       </c>
       <c r="D252">
-        <v>632100</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>7.2030000000000003</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="B253">
-        <v>9.59</v>
+        <v>8.51</v>
       </c>
       <c r="C253">
-        <v>13</v>
+        <v>20.2</v>
       </c>
       <c r="D253">
-        <v>709800</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>7.52</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="B254">
-        <v>7.26</v>
+        <v>5.57</v>
       </c>
       <c r="C254">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D254">
-        <v>905100</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>8.3979999999999997</v>
+        <v>5.8710000000000004</v>
       </c>
       <c r="B255">
-        <v>5.91</v>
+        <v>13.34</v>
       </c>
       <c r="C255">
-        <v>13</v>
+        <v>20.2</v>
       </c>
       <c r="D255">
-        <v>1024800</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>7.327</v>
+        <v>5.9050000000000002</v>
       </c>
       <c r="B256">
-        <v>11.25</v>
+        <v>11.45</v>
       </c>
       <c r="C256">
-        <v>13</v>
+        <v>20.2</v>
       </c>
       <c r="D256">
-        <v>651000</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>7.2060000000000004</v>
+        <v>6.12</v>
       </c>
       <c r="B257">
-        <v>8.1</v>
+        <v>9.08</v>
       </c>
       <c r="C257">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D257">
-        <v>766500</v>
+        <v>432600</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>5.56</v>
+        <v>6.1150000000000002</v>
       </c>
       <c r="B258">
-        <v>10.45</v>
+        <v>9.43</v>
       </c>
       <c r="C258">
-        <v>13</v>
+        <v>16.8</v>
       </c>
       <c r="D258">
-        <v>478800</v>
+        <v>430500</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>7.0140000000000002</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="B259">
-        <v>14.79</v>
+        <v>17.93</v>
       </c>
       <c r="C259">
-        <v>13</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D259">
-        <v>644700</v>
+        <v>430500</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>7.47</v>
+        <v>6.226</v>
       </c>
       <c r="B260">
-        <v>3.16</v>
+        <v>10.15</v>
       </c>
       <c r="C260">
-        <v>13</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D260">
-        <v>913500</v>
+        <v>430500</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>5.92</v>
+        <v>5.9489999999999998</v>
       </c>
       <c r="B261">
-        <v>13.65</v>
+        <v>8.26</v>
       </c>
       <c r="C261">
-        <v>18.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="D261">
-        <v>434700</v>
+        <v>428400</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>5.8559999999999999</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="B262">
-        <v>13</v>
+        <v>14.09</v>
       </c>
       <c r="C262">
-        <v>18.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="D262">
-        <v>443100</v>
+        <v>428400</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>6.24</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="B263">
-        <v>6.59</v>
+        <v>15.37</v>
       </c>
       <c r="C263">
-        <v>18.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D263">
-        <v>529200</v>
+        <v>428400</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>6.5380000000000003</v>
+        <v>6.0410000000000004</v>
       </c>
       <c r="B264">
-        <v>7.73</v>
+        <v>7.7</v>
       </c>
       <c r="C264">
-        <v>18.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D264">
-        <v>512400</v>
+        <v>428400</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>7.6909999999999998</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="B265">
-        <v>6.58</v>
+        <v>9.1</v>
       </c>
       <c r="C265">
-        <v>18.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D265">
-        <v>739200</v>
+        <v>426300</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>6.758</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="B266">
-        <v>3.53</v>
+        <v>14.27</v>
       </c>
       <c r="C266">
-        <v>17.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D266">
-        <v>680400</v>
+        <v>426300</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>6.8540000000000001</v>
+        <v>5.79</v>
       </c>
       <c r="B267">
-        <v>2.98</v>
+        <v>15.84</v>
       </c>
       <c r="C267">
-        <v>17.600000000000001</v>
+        <v>16</v>
       </c>
       <c r="D267">
-        <v>672000</v>
+        <v>426300</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>7.2670000000000003</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="B268">
-        <v>6.05</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C268">
-        <v>17.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D268">
-        <v>697200</v>
+        <v>426300</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>6.8259999999999996</v>
+        <v>5.4560000000000004</v>
       </c>
       <c r="B269">
-        <v>4.16</v>
+        <v>11.69</v>
       </c>
       <c r="C269">
-        <v>17.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="D269">
-        <v>695100</v>
+        <v>424200</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>6.4820000000000002</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="B270">
-        <v>7.19</v>
+        <v>10.29</v>
       </c>
       <c r="C270">
-        <v>17.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D270">
-        <v>611100</v>
+        <v>424200</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>6.8120000000000003</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="B271">
-        <v>4.8499999999999996</v>
+        <v>12.33</v>
       </c>
       <c r="C271">
-        <v>14.9</v>
+        <v>20.9</v>
       </c>
       <c r="D271">
-        <v>737100</v>
+        <v>422100</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>7.82</v>
+        <v>6.0949999999999998</v>
       </c>
       <c r="B272">
-        <v>3.76</v>
+        <v>12.4</v>
       </c>
       <c r="C272">
-        <v>14.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D272">
-        <v>953400</v>
+        <v>422100</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>6.968</v>
+        <v>6.23</v>
       </c>
       <c r="B273">
-        <v>4.59</v>
+        <v>12.93</v>
       </c>
       <c r="C273">
-        <v>14.9</v>
+        <v>18.2</v>
       </c>
       <c r="D273">
-        <v>743400</v>
+        <v>422100</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>7.6449999999999996</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="B274">
-        <v>3.01</v>
+        <v>14.76</v>
       </c>
       <c r="C274">
-        <v>14.9</v>
+        <v>20.2</v>
       </c>
       <c r="D274">
-        <v>966000</v>
+        <v>422100</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>7.0880000000000001</v>
+        <v>5.9829999999999997</v>
       </c>
       <c r="B275">
-        <v>7.85</v>
+        <v>13.35</v>
       </c>
       <c r="C275">
-        <v>15.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D275">
-        <v>676200</v>
+        <v>422100</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>6.4530000000000003</v>
+        <v>5.8410000000000002</v>
       </c>
       <c r="B276">
-        <v>8.23</v>
+        <v>11.41</v>
       </c>
       <c r="C276">
-        <v>15.3</v>
+        <v>19.2</v>
       </c>
       <c r="D276">
-        <v>462000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>6.23</v>
+        <v>5.7859999999999996</v>
       </c>
       <c r="B277">
-        <v>12.93</v>
+        <v>14.15</v>
       </c>
       <c r="C277">
-        <v>18.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D277">
-        <v>422100</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>6.2089999999999996</v>
+        <v>6.2789999999999999</v>
       </c>
       <c r="B278">
-        <v>7.14</v>
+        <v>11.97</v>
       </c>
       <c r="C278">
-        <v>16.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D278">
-        <v>487200</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>6.3150000000000004</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="B279">
-        <v>7.6</v>
+        <v>23.09</v>
       </c>
       <c r="C279">
-        <v>16.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D279">
-        <v>468300</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>6.5650000000000004</v>
+        <v>6.0810000000000004</v>
       </c>
       <c r="B280">
-        <v>9.51</v>
+        <v>14.7</v>
       </c>
       <c r="C280">
-        <v>16.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D280">
-        <v>520800</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>6.8609999999999998</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="B281">
-        <v>3.33</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="C281">
-        <v>19.2</v>
+        <v>21</v>
       </c>
       <c r="D281">
-        <v>598500</v>
+        <v>417900</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>7.1479999999999997</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="B282">
-        <v>3.56</v>
+        <v>14.19</v>
       </c>
       <c r="C282">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D282">
-        <v>783300</v>
+        <v>417900</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>6.63</v>
+        <v>5.7590000000000003</v>
       </c>
       <c r="B283">
-        <v>4.7</v>
+        <v>14.13</v>
       </c>
       <c r="C283">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D283">
-        <v>585900</v>
+        <v>417900</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>6.1269999999999998</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="B284">
-        <v>8.58</v>
+        <v>16.29</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>20.2</v>
       </c>
       <c r="D284">
-        <v>501900</v>
+        <v>417900</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>6.0090000000000003</v>
+        <v>6.4740000000000002</v>
       </c>
       <c r="B285">
-        <v>10.4</v>
+        <v>12.27</v>
       </c>
       <c r="C285">
-        <v>16</v>
+        <v>20.9</v>
       </c>
       <c r="D285">
-        <v>455700</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>6.6779999999999999</v>
+        <v>5.782</v>
       </c>
       <c r="B286">
-        <v>6.27</v>
+        <v>15.94</v>
       </c>
       <c r="C286">
-        <v>16</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D286">
-        <v>600600</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>6.5490000000000004</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="B287">
-        <v>7.39</v>
+        <v>9.09</v>
       </c>
       <c r="C287">
-        <v>16</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D287">
-        <v>569100</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>5.79</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="B288">
-        <v>15.84</v>
+        <v>13.45</v>
       </c>
       <c r="C288">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="D288">
-        <v>426300</v>
+        <v>413700</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>6.3449999999999998</v>
+        <v>5.39</v>
       </c>
       <c r="B289">
-        <v>4.97</v>
+        <v>21.14</v>
       </c>
       <c r="C289">
-        <v>14.8</v>
+        <v>19.2</v>
       </c>
       <c r="D289">
-        <v>472500</v>
+        <v>413700</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>7.0410000000000004</v>
+        <v>5.9649999999999999</v>
       </c>
       <c r="B290">
-        <v>4.74</v>
+        <v>13.83</v>
       </c>
       <c r="C290">
-        <v>14.8</v>
+        <v>21</v>
       </c>
       <c r="D290">
-        <v>609000</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>6.8710000000000004</v>
+        <v>5.9269999999999996</v>
       </c>
       <c r="B291">
-        <v>6.07</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C291">
-        <v>14.8</v>
+        <v>19.7</v>
       </c>
       <c r="D291">
-        <v>520800</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>6.59</v>
+        <v>6.3259999999999996</v>
       </c>
       <c r="B292">
-        <v>9.5</v>
+        <v>12.26</v>
       </c>
       <c r="C292">
-        <v>16.100000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="D292">
-        <v>462000</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>6.4950000000000001</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="B293">
-        <v>8.67</v>
+        <v>13.28</v>
       </c>
       <c r="C293">
-        <v>16.100000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="D293">
-        <v>554400</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>6.9820000000000002</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="B294">
-        <v>4.8600000000000003</v>
+        <v>12.87</v>
       </c>
       <c r="C294">
-        <v>16.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D294">
-        <v>695100</v>
+        <v>411600</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>7.2359999999999998</v>
+        <v>5.851</v>
       </c>
       <c r="B295">
-        <v>6.93</v>
+        <v>16.47</v>
       </c>
       <c r="C295">
-        <v>18.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="D295">
-        <v>758100</v>
+        <v>409500</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>6.6159999999999997</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="B296">
-        <v>8.93</v>
+        <v>18.66</v>
       </c>
       <c r="C296">
-        <v>18.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="D296">
-        <v>596400</v>
+        <v>409500</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>7.42</v>
+        <v>5.8689999999999998</v>
       </c>
       <c r="B297">
-        <v>6.47</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C297">
-        <v>18.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D297">
-        <v>701400</v>
+        <v>409500</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>6.8490000000000002</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="B298">
-        <v>7.53</v>
+        <v>13.99</v>
       </c>
       <c r="C298">
-        <v>18.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D298">
-        <v>592200</v>
+        <v>409500</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>6.6349999999999998</v>
+        <v>5.6020000000000003</v>
       </c>
       <c r="B299">
-        <v>4.54</v>
+        <v>16.2</v>
       </c>
       <c r="C299">
-        <v>18.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D299">
-        <v>478800</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>5.9720000000000004</v>
+        <v>5.7869999999999999</v>
       </c>
       <c r="B300">
-        <v>9.9700000000000006</v>
+        <v>10.24</v>
       </c>
       <c r="C300">
-        <v>18.399999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D300">
-        <v>426300</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>4.9729999999999999</v>
+        <v>6.2290000000000001</v>
       </c>
       <c r="B301">
-        <v>12.64</v>
+        <v>15.55</v>
       </c>
       <c r="C301">
-        <v>18.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="D301">
-        <v>338100</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>6.1219999999999999</v>
+        <v>5.7089999999999996</v>
       </c>
       <c r="B302">
-        <v>5.98</v>
+        <v>15.79</v>
       </c>
       <c r="C302">
-        <v>18.399999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="D302">
-        <v>464100</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,604 +4632,604 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>6.266</v>
+        <v>6.0309999999999997</v>
       </c>
       <c r="B304">
-        <v>7.9</v>
+        <v>7.83</v>
       </c>
       <c r="C304">
-        <v>18.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D304">
-        <v>453600</v>
+        <v>407400</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>6.5670000000000002</v>
+        <v>5.6820000000000004</v>
       </c>
       <c r="B305">
-        <v>9.2799999999999994</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="C305">
-        <v>18.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D305">
-        <v>499800</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>5.7050000000000001</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="B306">
-        <v>11.5</v>
+        <v>13.44</v>
       </c>
       <c r="C306">
-        <v>18.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="D306">
-        <v>340200</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>5.9139999999999997</v>
+        <v>5.7309999999999999</v>
       </c>
       <c r="B307">
-        <v>18.329999999999998</v>
+        <v>13.61</v>
       </c>
       <c r="C307">
-        <v>18.399999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="D307">
-        <v>373800</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>5.782</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="B308">
-        <v>15.94</v>
+        <v>23.98</v>
       </c>
       <c r="C308">
-        <v>18.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D308">
-        <v>415800</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>6.3819999999999997</v>
+        <v>5.8680000000000003</v>
       </c>
       <c r="B309">
-        <v>10.36</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C309">
-        <v>18.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D309">
-        <v>485100</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>6.1130000000000004</v>
+        <v>6.0209999999999999</v>
       </c>
       <c r="B310">
-        <v>12.73</v>
+        <v>10.3</v>
       </c>
       <c r="C310">
-        <v>18.399999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="D310">
-        <v>441000</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>6.4260000000000002</v>
+        <v>6.4580000000000002</v>
       </c>
       <c r="B311">
-        <v>7.2</v>
+        <v>12.6</v>
       </c>
       <c r="C311">
-        <v>19.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="D311">
-        <v>499800</v>
+        <v>403200</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>6.3760000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="B312">
-        <v>6.87</v>
+        <v>12.03</v>
       </c>
       <c r="C312">
-        <v>19.600000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="D312">
-        <v>485100</v>
+        <v>401100</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>6.0410000000000004</v>
+        <v>6.0030000000000001</v>
       </c>
       <c r="B313">
-        <v>7.7</v>
+        <v>21.32</v>
       </c>
       <c r="C313">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D313">
-        <v>428400</v>
+        <v>401100</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>5.7080000000000002</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="B314">
-        <v>11.74</v>
+        <v>18.13</v>
       </c>
       <c r="C314">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D314">
-        <v>388500</v>
+        <v>401100</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>6.415</v>
+        <v>6.1139999999999999</v>
       </c>
       <c r="B315">
-        <v>6.12</v>
+        <v>14.98</v>
       </c>
       <c r="C315">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D315">
-        <v>525000</v>
+        <v>401100</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>6.431</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="B316">
-        <v>5.08</v>
+        <v>9.74</v>
       </c>
       <c r="C316">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D316">
-        <v>516600</v>
+        <v>399000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>6.3120000000000003</v>
+        <v>5.952</v>
       </c>
       <c r="B317">
-        <v>6.15</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="C317">
-        <v>19.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D317">
-        <v>483000</v>
+        <v>399000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>6.0830000000000002</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="B318">
-        <v>12.79</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C318">
-        <v>19.600000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="D318">
-        <v>466200</v>
+        <v>396900</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>5.8680000000000003</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="B319">
-        <v>9.9700000000000006</v>
+        <v>13.27</v>
       </c>
       <c r="C319">
-        <v>16.899999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="D319">
-        <v>405300</v>
+        <v>396900</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>6.3330000000000002</v>
+        <v>5.9329999999999998</v>
       </c>
       <c r="B320">
-        <v>7.34</v>
+        <v>9.68</v>
       </c>
       <c r="C320">
-        <v>16.899999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="D320">
-        <v>474600</v>
+        <v>396900</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>6.1440000000000001</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="B321">
-        <v>9.09</v>
+        <v>14.8</v>
       </c>
       <c r="C321">
-        <v>16.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="D321">
-        <v>415800</v>
+        <v>396900</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>5.7060000000000004</v>
+        <v>5.9130000000000003</v>
       </c>
       <c r="B322">
-        <v>12.43</v>
+        <v>16.21</v>
       </c>
       <c r="C322">
-        <v>16.899999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="D322">
-        <v>359100</v>
+        <v>394800</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>6.0309999999999997</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="B323">
-        <v>7.83</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C323">
-        <v>16.899999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D323">
-        <v>407400</v>
+        <v>394800</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>6.3159999999999998</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="B324">
-        <v>5.68</v>
+        <v>13.15</v>
       </c>
       <c r="C324">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="D324">
-        <v>466200</v>
+        <v>392700</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>6.31</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="B325">
-        <v>6.75</v>
+        <v>17.09</v>
       </c>
       <c r="C325">
-        <v>20.2</v>
+        <v>17.8</v>
       </c>
       <c r="D325">
-        <v>434700</v>
+        <v>392700</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>6.0369999999999999</v>
+        <v>5.968</v>
       </c>
       <c r="B326">
-        <v>8.01</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="C326">
         <v>20.2</v>
       </c>
       <c r="D326">
-        <v>443100</v>
+        <v>392700</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>5.8689999999999998</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="B327">
-        <v>9.8000000000000007</v>
+        <v>10.63</v>
       </c>
       <c r="C327">
-        <v>20.2</v>
+        <v>20.9</v>
       </c>
       <c r="D327">
-        <v>409500</v>
+        <v>390600</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>5.8949999999999996</v>
+        <v>5.8840000000000003</v>
       </c>
       <c r="B328">
-        <v>10.56</v>
+        <v>7.79</v>
       </c>
       <c r="C328">
-        <v>20.2</v>
+        <v>18.3</v>
       </c>
       <c r="D328">
-        <v>388500</v>
+        <v>390600</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>6.0590000000000002</v>
+        <v>6.2539999999999996</v>
       </c>
       <c r="B329">
-        <v>8.51</v>
+        <v>10.45</v>
       </c>
       <c r="C329">
-        <v>20.2</v>
+        <v>17.8</v>
       </c>
       <c r="D329">
-        <v>432600</v>
+        <v>388500</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>5.9850000000000003</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="B330">
-        <v>9.74</v>
+        <v>18.46</v>
       </c>
       <c r="C330">
-        <v>20.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D330">
-        <v>399000</v>
+        <v>388500</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>5.968</v>
+        <v>5.7080000000000002</v>
       </c>
       <c r="B331">
-        <v>9.2899999999999991</v>
+        <v>11.74</v>
       </c>
       <c r="C331">
-        <v>20.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D331">
-        <v>392700</v>
+        <v>388500</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>7.2409999999999997</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="B332">
-        <v>5.49</v>
+        <v>10.56</v>
       </c>
       <c r="C332">
-        <v>15.5</v>
+        <v>20.2</v>
       </c>
       <c r="D332">
-        <v>686700</v>
+        <v>388500</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>6.54</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="B333">
-        <v>8.65</v>
+        <v>12.8</v>
       </c>
       <c r="C333">
-        <v>15.9</v>
+        <v>21</v>
       </c>
       <c r="D333">
-        <v>346500</v>
+        <v>386400</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>6.6959999999999997</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="B334">
-        <v>7.18</v>
+        <v>15.03</v>
       </c>
       <c r="C334">
-        <v>17.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="D334">
-        <v>501900</v>
+        <v>386400</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>6.8739999999999997</v>
+        <v>6.2190000000000003</v>
       </c>
       <c r="B335">
-        <v>4.6100000000000003</v>
+        <v>16.59</v>
       </c>
       <c r="C335">
-        <v>17.600000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D335">
-        <v>655200</v>
+        <v>386400</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>6.0140000000000002</v>
+        <v>5.9279999999999999</v>
       </c>
       <c r="B336">
-        <v>10.53</v>
+        <v>15.76</v>
       </c>
       <c r="C336">
-        <v>18.8</v>
+        <v>17.8</v>
       </c>
       <c r="D336">
-        <v>367500</v>
+        <v>384300</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>5.8979999999999997</v>
+        <v>5.7939999999999996</v>
       </c>
       <c r="B337">
-        <v>12.67</v>
+        <v>14.1</v>
       </c>
       <c r="C337">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="D337">
-        <v>361200</v>
+        <v>384300</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>6.516</v>
+        <v>6.0960000000000001</v>
       </c>
       <c r="B338">
-        <v>6.36</v>
+        <v>10.26</v>
       </c>
       <c r="C338">
-        <v>17.899999999999999</v>
+        <v>21</v>
       </c>
       <c r="D338">
-        <v>485100</v>
+        <v>382200</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>6.6349999999999998</v>
+        <v>5.7270000000000003</v>
       </c>
       <c r="B339">
-        <v>5.99</v>
+        <v>11.28</v>
       </c>
       <c r="C339">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D339">
-        <v>514500</v>
+        <v>382200</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>6.9390000000000001</v>
+        <v>5.6630000000000003</v>
       </c>
       <c r="B340">
-        <v>5.89</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C340">
-        <v>19.7</v>
+        <v>22</v>
       </c>
       <c r="D340">
-        <v>558600</v>
+        <v>382200</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>6.49</v>
+        <v>6.335</v>
       </c>
       <c r="B341">
-        <v>5.98</v>
+        <v>16.96</v>
       </c>
       <c r="C341">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="D341">
-        <v>480900</v>
+        <v>380100</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>6.5789999999999997</v>
+        <v>6.431</v>
       </c>
       <c r="B342">
-        <v>5.49</v>
+        <v>15.39</v>
       </c>
       <c r="C342">
-        <v>18.3</v>
+        <v>21.2</v>
       </c>
       <c r="D342">
-        <v>506100</v>
+        <v>378000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>5.8840000000000003</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="B343">
-        <v>7.79</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="C343">
-        <v>18.3</v>
+        <v>20.2</v>
       </c>
       <c r="D343">
-        <v>390600</v>
+        <v>375900</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>6.7279999999999998</v>
+        <v>6.1509999999999998</v>
       </c>
       <c r="B344">
-        <v>4.5</v>
+        <v>18.46</v>
       </c>
       <c r="C344">
-        <v>17</v>
+        <v>21.2</v>
       </c>
       <c r="D344">
-        <v>632100</v>
+        <v>373800</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>5.6630000000000003</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="B345">
-        <v>8.0500000000000007</v>
+        <v>28.32</v>
       </c>
       <c r="C345">
-        <v>22</v>
+        <v>14.7</v>
       </c>
       <c r="D345">
-        <v>382200</v>
+        <v>373800</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>5.9359999999999999</v>
+        <v>5.9139999999999997</v>
       </c>
       <c r="B346">
-        <v>5.57</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="C346">
-        <v>22</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D346">
-        <v>432600</v>
+        <v>373800</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,668 +5248,668 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>6.3949999999999996</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="B348">
-        <v>13.27</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="C348">
         <v>20.2</v>
       </c>
       <c r="D348">
-        <v>455700</v>
+        <v>373800</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>6.1269999999999998</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="B349">
-        <v>11.48</v>
+        <v>14.65</v>
       </c>
       <c r="C349">
         <v>20.2</v>
       </c>
       <c r="D349">
-        <v>476700</v>
+        <v>371700</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>6.1120000000000001</v>
+        <v>5.593</v>
       </c>
       <c r="B350">
-        <v>12.67</v>
+        <v>12.5</v>
       </c>
       <c r="C350">
-        <v>20.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D350">
-        <v>474600</v>
+        <v>369600</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>6.3979999999999997</v>
+        <v>5.99</v>
       </c>
       <c r="B351">
-        <v>7.79</v>
+        <v>14.67</v>
       </c>
       <c r="C351">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D351">
-        <v>525000</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>6.2510000000000003</v>
+        <v>6.0140000000000002</v>
       </c>
       <c r="B352">
-        <v>14.19</v>
+        <v>10.53</v>
       </c>
       <c r="C352">
-        <v>20.2</v>
+        <v>18.8</v>
       </c>
       <c r="D352">
-        <v>417900</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>5.3620000000000001</v>
+        <v>5.569</v>
       </c>
       <c r="B353">
-        <v>10.19</v>
+        <v>15.1</v>
       </c>
       <c r="C353">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="D353">
-        <v>436800</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>5.8029999999999999</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="B354">
-        <v>14.64</v>
+        <v>13.09</v>
       </c>
       <c r="C354">
-        <v>20.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D354">
-        <v>352800</v>
+        <v>365400</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>3.5609999999999999</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="B355">
-        <v>7.12</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C355">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D355">
-        <v>577500</v>
+        <v>365400</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>4.9630000000000001</v>
+        <v>5.875</v>
       </c>
       <c r="B356">
-        <v>14</v>
+        <v>14.43</v>
       </c>
       <c r="C356">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D356">
-        <v>459900</v>
+        <v>365400</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>3.863</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="B357">
-        <v>13.33</v>
+        <v>25.41</v>
       </c>
       <c r="C357">
-        <v>20.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D357">
-        <v>485100</v>
+        <v>363300</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>4.9059999999999997</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="B358">
-        <v>34.770000000000003</v>
+        <v>12.67</v>
       </c>
       <c r="C358">
-        <v>20.2</v>
+        <v>18.8</v>
       </c>
       <c r="D358">
-        <v>289800</v>
+        <v>361200</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>4.1379999999999999</v>
+        <v>5.617</v>
       </c>
       <c r="B359">
-        <v>37.97</v>
+        <v>26.4</v>
       </c>
       <c r="C359">
         <v>20.2</v>
       </c>
       <c r="D359">
-        <v>289800</v>
+        <v>361200</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>7.3129999999999997</v>
+        <v>6.657</v>
       </c>
       <c r="B360">
-        <v>13.44</v>
+        <v>21.22</v>
       </c>
       <c r="C360">
         <v>20.2</v>
       </c>
       <c r="D360">
-        <v>315000</v>
+        <v>361200</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>6.649</v>
+        <v>6.4539999999999997</v>
       </c>
       <c r="B361">
-        <v>23.24</v>
+        <v>14.59</v>
       </c>
       <c r="C361">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D361">
-        <v>291900</v>
+        <v>359100</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>6.7939999999999996</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="B362">
-        <v>21.24</v>
+        <v>12.43</v>
       </c>
       <c r="C362">
-        <v>20.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D362">
-        <v>279300</v>
+        <v>359100</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>6.38</v>
+        <v>6.4059999999999997</v>
       </c>
       <c r="B363">
-        <v>23.69</v>
+        <v>19.52</v>
       </c>
       <c r="C363">
         <v>20.2</v>
       </c>
       <c r="D363">
-        <v>275100</v>
+        <v>359100</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>6.2229999999999999</v>
+        <v>6.1289999999999996</v>
       </c>
       <c r="B364">
-        <v>21.78</v>
+        <v>15.12</v>
       </c>
       <c r="C364">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D364">
-        <v>214200</v>
+        <v>357000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>6.968</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="B365">
-        <v>17.21</v>
+        <v>14.64</v>
       </c>
       <c r="C365">
         <v>20.2</v>
       </c>
       <c r="D365">
-        <v>218400</v>
+        <v>352800</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>6.5449999999999999</v>
+        <v>6.0270000000000001</v>
       </c>
       <c r="B366">
-        <v>21.08</v>
+        <v>14.33</v>
       </c>
       <c r="C366">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="D366">
-        <v>228900</v>
+        <v>352800</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>5.5359999999999996</v>
+        <v>6.4109999999999996</v>
       </c>
       <c r="B367">
-        <v>23.6</v>
+        <v>15.02</v>
       </c>
       <c r="C367">
         <v>20.2</v>
       </c>
       <c r="D367">
-        <v>237300</v>
+        <v>350700</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>5.52</v>
+        <v>6.484</v>
       </c>
       <c r="B368">
-        <v>24.56</v>
+        <v>18.68</v>
       </c>
       <c r="C368">
         <v>20.2</v>
       </c>
       <c r="D368">
-        <v>258300</v>
+        <v>350700</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>4.3680000000000003</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="B369">
-        <v>30.63</v>
+        <v>14.81</v>
       </c>
       <c r="C369">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D369">
-        <v>184800</v>
+        <v>348600</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>5.2770000000000001</v>
+        <v>6.03</v>
       </c>
       <c r="B370">
-        <v>30.81</v>
+        <v>18.8</v>
       </c>
       <c r="C370">
-        <v>20.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D370">
-        <v>151200</v>
+        <v>348600</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>4.6520000000000001</v>
+        <v>5.6310000000000002</v>
       </c>
       <c r="B371">
-        <v>28.28</v>
+        <v>29.93</v>
       </c>
       <c r="C371">
-        <v>20.2</v>
+        <v>15.2</v>
       </c>
       <c r="D371">
-        <v>220500</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>5</v>
+        <v>6.54</v>
       </c>
       <c r="B372">
-        <v>31.99</v>
+        <v>8.65</v>
       </c>
       <c r="C372">
-        <v>20.2</v>
+        <v>15.9</v>
       </c>
       <c r="D372">
-        <v>155400</v>
+        <v>346500</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>4.88</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="B373">
-        <v>30.62</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C373">
         <v>20.2</v>
       </c>
       <c r="D373">
-        <v>214200</v>
+        <v>344400</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>5.39</v>
+        <v>5.1550000000000002</v>
       </c>
       <c r="B374">
-        <v>20.85</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="C374">
         <v>20.2</v>
       </c>
       <c r="D374">
-        <v>241500</v>
+        <v>342300</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>5.7130000000000001</v>
+        <v>5.6929999999999996</v>
       </c>
       <c r="B375">
-        <v>17.11</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="C375">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D375">
-        <v>317100</v>
+        <v>340200</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>6.0510000000000002</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="B376">
-        <v>18.760000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="C376">
-        <v>20.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D376">
-        <v>487200</v>
+        <v>340200</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>5.0359999999999996</v>
+        <v>4.9729999999999999</v>
       </c>
       <c r="B377">
-        <v>25.68</v>
+        <v>12.64</v>
       </c>
       <c r="C377">
-        <v>20.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D377">
-        <v>203700</v>
+        <v>338100</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>6.1929999999999996</v>
+        <v>6.4249999999999998</v>
       </c>
       <c r="B378">
-        <v>15.17</v>
+        <v>12.03</v>
       </c>
       <c r="C378">
         <v>20.2</v>
       </c>
       <c r="D378">
-        <v>289800</v>
+        <v>338100</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>5.8869999999999996</v>
+        <v>6.2969999999999997</v>
       </c>
       <c r="B379">
-        <v>16.350000000000001</v>
+        <v>17.27</v>
       </c>
       <c r="C379">
         <v>20.2</v>
       </c>
       <c r="D379">
-        <v>266700</v>
+        <v>338100</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>6.4710000000000001</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="B380">
-        <v>17.12</v>
+        <v>14.44</v>
       </c>
       <c r="C380">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="D380">
-        <v>275100</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>6.4050000000000002</v>
+        <v>5.6130000000000004</v>
       </c>
       <c r="B381">
-        <v>19.37</v>
+        <v>27.26</v>
       </c>
       <c r="C381">
-        <v>20.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D381">
-        <v>262500</v>
+        <v>329700</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>5.7469999999999999</v>
+        <v>5.9240000000000004</v>
       </c>
       <c r="B382">
-        <v>19.920000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="C382">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D382">
-        <v>178500</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>5.4530000000000003</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="B383">
-        <v>30.59</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="C383">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D383">
-        <v>105000</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>5.8520000000000003</v>
+        <v>5.468</v>
       </c>
       <c r="B384">
-        <v>29.97</v>
+        <v>26.42</v>
       </c>
       <c r="C384">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D384">
-        <v>132300</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>5.9870000000000001</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="B385">
-        <v>26.77</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="C385">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D385">
-        <v>117600</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>6.343</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="B386">
-        <v>20.32</v>
+        <v>15.02</v>
       </c>
       <c r="C386">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D386">
-        <v>151200</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>6.4039999999999999</v>
+        <v>5.5970000000000004</v>
       </c>
       <c r="B387">
-        <v>20.309999999999999</v>
+        <v>21.45</v>
       </c>
       <c r="C387">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D387">
-        <v>254100</v>
+        <v>323400</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>5.3490000000000002</v>
+        <v>6.4850000000000003</v>
       </c>
       <c r="B388">
-        <v>19.77</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="C388">
         <v>20.2</v>
       </c>
       <c r="D388">
-        <v>174300</v>
+        <v>323400</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>5.5309999999999997</v>
+        <v>5.0119999999999996</v>
       </c>
       <c r="B389">
-        <v>27.38</v>
+        <v>12.12</v>
       </c>
       <c r="C389">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D389">
-        <v>178500</v>
+        <v>321300</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>5.6829999999999998</v>
+        <v>6.1420000000000003</v>
       </c>
       <c r="B390">
-        <v>22.98</v>
+        <v>18.72</v>
       </c>
       <c r="C390">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D390">
-        <v>105000</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>4.1379999999999999</v>
+        <v>6.6550000000000002</v>
       </c>
       <c r="B391">
-        <v>23.34</v>
+        <v>17.73</v>
       </c>
       <c r="C391">
         <v>20.2</v>
       </c>
       <c r="D391">
-        <v>249900</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>5.6079999999999997</v>
+        <v>5.4539999999999997</v>
       </c>
       <c r="B392">
-        <v>12.13</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C392">
-        <v>20.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D392">
-        <v>585900</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>5.617</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="B393">
-        <v>26.4</v>
+        <v>17.11</v>
       </c>
       <c r="C393">
         <v>20.2</v>
       </c>
       <c r="D393">
-        <v>361200</v>
+        <v>317100</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>6.8520000000000003</v>
+        <v>6.3769999999999998</v>
       </c>
       <c r="B394">
-        <v>19.78</v>
+        <v>20.45</v>
       </c>
       <c r="C394">
-        <v>20.2</v>
+        <v>15.2</v>
       </c>
       <c r="D394">
-        <v>577500</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>5.7569999999999997</v>
+        <v>7.3129999999999997</v>
       </c>
       <c r="B395">
-        <v>10.11</v>
+        <v>13.44</v>
       </c>
       <c r="C395">
         <v>20.2</v>
@@ -5906,640 +5920,640 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>6.657</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="B396">
-        <v>21.22</v>
+        <v>10.11</v>
       </c>
       <c r="C396">
         <v>20.2</v>
       </c>
       <c r="D396">
-        <v>361200</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>4.6280000000000001</v>
+        <v>6.3410000000000002</v>
       </c>
       <c r="B397">
-        <v>34.369999999999997</v>
+        <v>17.79</v>
       </c>
       <c r="C397">
         <v>20.2</v>
       </c>
       <c r="D397">
-        <v>375900</v>
+        <v>312900</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>5.1550000000000002</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="B398">
-        <v>20.079999999999998</v>
+        <v>18.71</v>
       </c>
       <c r="C398">
         <v>20.2</v>
       </c>
       <c r="D398">
-        <v>342300</v>
+        <v>312900</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>4.5190000000000001</v>
+        <v>6.3010000000000002</v>
       </c>
       <c r="B399">
-        <v>36.979999999999997</v>
+        <v>16.23</v>
       </c>
       <c r="C399">
         <v>20.2</v>
       </c>
       <c r="D399">
-        <v>147000</v>
+        <v>312900</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>6.4340000000000002</v>
+        <v>6.0469999999999997</v>
       </c>
       <c r="B400">
-        <v>29.05</v>
+        <v>17.28</v>
       </c>
       <c r="C400">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D400">
-        <v>151200</v>
+        <v>310800</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>6.782</v>
+        <v>4.9260000000000002</v>
       </c>
       <c r="B401">
-        <v>25.79</v>
+        <v>29.53</v>
       </c>
       <c r="C401">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D401">
-        <v>157500</v>
+        <v>306600</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>5.3040000000000003</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="B402">
-        <v>26.64</v>
+        <v>18.03</v>
       </c>
       <c r="C402">
         <v>20.2</v>
       </c>
       <c r="D402">
-        <v>218400</v>
+        <v>306600</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>5.9569999999999999</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="B403">
-        <v>20.62</v>
+        <v>19.88</v>
       </c>
       <c r="C403">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D403">
-        <v>184800</v>
+        <v>304500</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>6.8239999999999998</v>
+        <v>6.0720000000000001</v>
       </c>
       <c r="B404">
-        <v>22.74</v>
+        <v>13.04</v>
       </c>
       <c r="C404">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D404">
-        <v>176400</v>
+        <v>304500</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>6.4109999999999996</v>
+        <v>6.3479999999999999</v>
       </c>
       <c r="B405">
-        <v>15.02</v>
+        <v>17.64</v>
       </c>
       <c r="C405">
         <v>20.2</v>
       </c>
       <c r="D405">
-        <v>350700</v>
+        <v>304500</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>6.0060000000000002</v>
+        <v>5.399</v>
       </c>
       <c r="B406">
-        <v>15.7</v>
+        <v>30.81</v>
       </c>
       <c r="C406">
-        <v>20.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D406">
-        <v>298200</v>
+        <v>302400</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>5.6479999999999997</v>
+        <v>5.0190000000000001</v>
       </c>
       <c r="B407">
-        <v>14.1</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="C407">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D407">
-        <v>436800</v>
+        <v>302400</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>6.1029999999999998</v>
+        <v>5.6369999999999996</v>
       </c>
       <c r="B408">
-        <v>23.29</v>
+        <v>18.34</v>
       </c>
       <c r="C408">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D408">
-        <v>281400</v>
+        <v>300300</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>5.5650000000000004</v>
+        <v>6.4359999999999999</v>
       </c>
       <c r="B409">
-        <v>17.16</v>
+        <v>16.22</v>
       </c>
       <c r="C409">
         <v>20.2</v>
       </c>
       <c r="D409">
-        <v>245700</v>
+        <v>300300</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>5.8959999999999999</v>
+        <v>6.0060000000000002</v>
       </c>
       <c r="B410">
-        <v>24.39</v>
+        <v>15.7</v>
       </c>
       <c r="C410">
         <v>20.2</v>
       </c>
       <c r="D410">
-        <v>174300</v>
+        <v>298200</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>5.8369999999999997</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="B411">
-        <v>15.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="C411">
         <v>20.2</v>
       </c>
       <c r="D411">
-        <v>214200</v>
+        <v>296100</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>6.202</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="B412">
-        <v>14.52</v>
+        <v>18.13</v>
       </c>
       <c r="C412">
         <v>20.2</v>
       </c>
       <c r="D412">
-        <v>228900</v>
+        <v>296100</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>6.1929999999999996</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="B413">
-        <v>21.52</v>
+        <v>18.13</v>
       </c>
       <c r="C413">
         <v>20.2</v>
       </c>
       <c r="D413">
-        <v>231000</v>
+        <v>296100</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>6.38</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="B414">
-        <v>24.08</v>
+        <v>24.16</v>
       </c>
       <c r="C414">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D414">
-        <v>199500</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>6.3479999999999999</v>
+        <v>5.5990000000000002</v>
       </c>
       <c r="B415">
-        <v>17.64</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C415">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D415">
-        <v>304500</v>
+        <v>291900</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>6.8330000000000002</v>
+        <v>6.649</v>
       </c>
       <c r="B416">
-        <v>19.690000000000001</v>
+        <v>23.24</v>
       </c>
       <c r="C416">
         <v>20.2</v>
       </c>
       <c r="D416">
-        <v>296100</v>
+        <v>291900</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>6.4249999999999998</v>
+        <v>6.13</v>
       </c>
       <c r="B417">
-        <v>12.03</v>
+        <v>27.8</v>
       </c>
       <c r="C417">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D417">
-        <v>338100</v>
+        <v>289800</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>6.4359999999999999</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="B418">
-        <v>16.22</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="C418">
         <v>20.2</v>
       </c>
       <c r="D418">
-        <v>300300</v>
+        <v>289800</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>6.2080000000000002</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="B419">
-        <v>15.17</v>
+        <v>37.97</v>
       </c>
       <c r="C419">
         <v>20.2</v>
       </c>
       <c r="D419">
-        <v>245700</v>
+        <v>289800</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>6.6289999999999996</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="B420">
-        <v>23.27</v>
+        <v>15.17</v>
       </c>
       <c r="C420">
         <v>20.2</v>
       </c>
       <c r="D420">
-        <v>281400</v>
+        <v>289800</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>6.4610000000000003</v>
+        <v>5.4269999999999996</v>
       </c>
       <c r="B421">
-        <v>18.05</v>
+        <v>18.14</v>
       </c>
       <c r="C421">
         <v>20.2</v>
       </c>
       <c r="D421">
-        <v>201600</v>
+        <v>289800</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>6.1520000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="B422">
-        <v>26.45</v>
+        <v>21.02</v>
       </c>
       <c r="C422">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D422">
-        <v>182700</v>
+        <v>285600</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>5.9349999999999996</v>
+        <v>5.9829999999999997</v>
       </c>
       <c r="B423">
-        <v>34.020000000000003</v>
+        <v>18.07</v>
       </c>
       <c r="C423">
-        <v>20.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D423">
-        <v>176400</v>
+        <v>285600</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>5.6269999999999998</v>
+        <v>6.0960000000000001</v>
       </c>
       <c r="B424">
-        <v>22.88</v>
+        <v>20.34</v>
       </c>
       <c r="C424">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D424">
-        <v>268800</v>
+        <v>283500</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>5.8179999999999996</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="B425">
-        <v>22.11</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C425">
         <v>20.2</v>
       </c>
       <c r="D425">
-        <v>220500</v>
+        <v>283500</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>6.4059999999999997</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="B426">
-        <v>19.52</v>
+        <v>26.82</v>
       </c>
       <c r="C426">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D426">
-        <v>359100</v>
+        <v>281400</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>6.2190000000000003</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="B427">
-        <v>16.59</v>
+        <v>23.29</v>
       </c>
       <c r="C427">
         <v>20.2</v>
       </c>
       <c r="D427">
-        <v>386400</v>
+        <v>281400</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>6.4850000000000003</v>
+        <v>6.6289999999999996</v>
       </c>
       <c r="B428">
-        <v>18.850000000000001</v>
+        <v>23.27</v>
       </c>
       <c r="C428">
         <v>20.2</v>
       </c>
       <c r="D428">
-        <v>323400</v>
+        <v>281400</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>5.8540000000000001</v>
+        <v>6.7489999999999997</v>
       </c>
       <c r="B429">
-        <v>23.79</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="C429">
         <v>20.2</v>
       </c>
       <c r="D429">
-        <v>226800</v>
+        <v>281400</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>6.4589999999999996</v>
+        <v>5.8570000000000002</v>
       </c>
       <c r="B430">
-        <v>23.98</v>
+        <v>21.32</v>
       </c>
       <c r="C430">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="D430">
-        <v>247800</v>
+        <v>279300</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>6.3410000000000002</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="B431">
-        <v>17.79</v>
+        <v>21.24</v>
       </c>
       <c r="C431">
         <v>20.2</v>
       </c>
       <c r="D431">
-        <v>312900</v>
+        <v>279300</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>6.2510000000000003</v>
+        <v>6.1619999999999999</v>
       </c>
       <c r="B432">
-        <v>16.440000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="C432">
         <v>20.2</v>
       </c>
       <c r="D432">
-        <v>264600</v>
+        <v>279300</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>6.1849999999999996</v>
+        <v>5.95</v>
       </c>
       <c r="B433">
-        <v>18.13</v>
+        <v>27.71</v>
       </c>
       <c r="C433">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D433">
-        <v>296100</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>6.4169999999999998</v>
+        <v>5.7009999999999996</v>
       </c>
       <c r="B434">
-        <v>19.309999999999999</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C434">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D434">
-        <v>273000</v>
+        <v>275100</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>6.7489999999999997</v>
+        <v>5.2720000000000002</v>
       </c>
       <c r="B435">
-        <v>17.440000000000001</v>
+        <v>16.14</v>
       </c>
       <c r="C435">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D435">
-        <v>281400</v>
+        <v>275100</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>6.6550000000000002</v>
+        <v>6.38</v>
       </c>
       <c r="B436">
-        <v>17.73</v>
+        <v>23.69</v>
       </c>
       <c r="C436">
         <v>20.2</v>
       </c>
       <c r="D436">
-        <v>319200</v>
+        <v>275100</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>6.2969999999999997</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="B437">
-        <v>17.27</v>
+        <v>17.12</v>
       </c>
       <c r="C437">
         <v>20.2</v>
       </c>
       <c r="D437">
-        <v>338100</v>
+        <v>275100</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>7.3929999999999998</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="B438">
-        <v>16.739999999999998</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="C438">
         <v>20.2</v>
       </c>
       <c r="D438">
-        <v>373800</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>6.7279999999999998</v>
+        <v>5.6269999999999998</v>
       </c>
       <c r="B439">
-        <v>18.71</v>
+        <v>22.88</v>
       </c>
       <c r="C439">
         <v>20.2</v>
       </c>
       <c r="D439">
-        <v>312900</v>
+        <v>268800</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>6.5250000000000004</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="B440">
-        <v>18.13</v>
+        <v>22.6</v>
       </c>
       <c r="C440">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D440">
-        <v>296100</v>
+        <v>266700</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>5.976</v>
+        <v>5.8869999999999996</v>
       </c>
       <c r="B441">
-        <v>19.010000000000002</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="C441">
         <v>20.2</v>
@@ -6550,691 +6564,694 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>5.9359999999999999</v>
+        <v>5.976</v>
       </c>
       <c r="B442">
-        <v>16.940000000000001</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="C442">
         <v>20.2</v>
       </c>
       <c r="D442">
-        <v>283500</v>
+        <v>266700</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>6.3010000000000002</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="B443">
-        <v>16.23</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="C443">
         <v>20.2</v>
       </c>
       <c r="D443">
-        <v>312900</v>
+        <v>264600</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>6.0810000000000004</v>
+        <v>6.4050000000000002</v>
       </c>
       <c r="B444">
-        <v>14.7</v>
+        <v>19.37</v>
       </c>
       <c r="C444">
         <v>20.2</v>
       </c>
       <c r="D444">
-        <v>420000</v>
+        <v>262500</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>6.7009999999999996</v>
+        <v>5.52</v>
       </c>
       <c r="B445">
-        <v>16.420000000000002</v>
+        <v>24.56</v>
       </c>
       <c r="C445">
         <v>20.2</v>
       </c>
       <c r="D445">
-        <v>344400</v>
+        <v>258300</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>6.3760000000000003</v>
+        <v>6.4039999999999999</v>
       </c>
       <c r="B446">
-        <v>14.65</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="C446">
         <v>20.2</v>
       </c>
       <c r="D446">
-        <v>371700</v>
+        <v>254100</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>6.3170000000000002</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="B447">
-        <v>13.99</v>
+        <v>24.91</v>
       </c>
       <c r="C447">
         <v>20.2</v>
       </c>
       <c r="D447">
-        <v>409500</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>6.5129999999999999</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="B448">
-        <v>10.29</v>
+        <v>23.34</v>
       </c>
       <c r="C448">
         <v>20.2</v>
       </c>
       <c r="D448">
-        <v>424200</v>
+        <v>249900</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>6.2089999999999996</v>
+        <v>6.03</v>
       </c>
       <c r="B449">
-        <v>13.22</v>
+        <v>7.88</v>
       </c>
       <c r="C449">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="D449">
-        <v>449400</v>
+        <v>249900</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>5.7590000000000003</v>
+        <v>4.9029999999999996</v>
       </c>
       <c r="B450">
-        <v>14.13</v>
+        <v>29.29</v>
       </c>
       <c r="C450">
-        <v>20.2</v>
+        <v>14.7</v>
       </c>
       <c r="D450">
-        <v>417900</v>
+        <v>247800</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>5.952</v>
+        <v>6.4589999999999996</v>
       </c>
       <c r="B451">
-        <v>17.149999999999999</v>
+        <v>23.98</v>
       </c>
       <c r="C451">
         <v>20.2</v>
       </c>
       <c r="D451">
-        <v>399000</v>
+        <v>247800</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>6.0030000000000001</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="B452">
-        <v>21.32</v>
+        <v>17.16</v>
       </c>
       <c r="C452">
         <v>20.2</v>
       </c>
       <c r="D452">
-        <v>401100</v>
+        <v>245700</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>5.9260000000000002</v>
+        <v>6.2080000000000002</v>
       </c>
       <c r="B453">
-        <v>18.13</v>
+        <v>15.17</v>
       </c>
       <c r="C453">
         <v>20.2</v>
       </c>
       <c r="D453">
-        <v>401100</v>
+        <v>245700</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>5.7130000000000001</v>
+        <v>5.39</v>
       </c>
       <c r="B454">
-        <v>14.76</v>
+        <v>20.85</v>
       </c>
       <c r="C454">
         <v>20.2</v>
       </c>
       <c r="D454">
-        <v>422100</v>
+        <v>241500</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>6.1669999999999998</v>
+        <v>5.5359999999999996</v>
       </c>
       <c r="B455">
-        <v>16.29</v>
+        <v>23.6</v>
       </c>
       <c r="C455">
         <v>20.2</v>
       </c>
       <c r="D455">
-        <v>417900</v>
+        <v>237300</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>6.2290000000000001</v>
+        <v>6.1929999999999996</v>
       </c>
       <c r="B456">
-        <v>12.87</v>
+        <v>21.52</v>
       </c>
       <c r="C456">
         <v>20.2</v>
       </c>
       <c r="D456">
-        <v>411600</v>
+        <v>231000</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>6.4370000000000003</v>
+        <v>6.5449999999999999</v>
       </c>
       <c r="B457">
-        <v>14.36</v>
+        <v>21.08</v>
       </c>
       <c r="C457">
         <v>20.2</v>
       </c>
       <c r="D457">
-        <v>487200</v>
+        <v>228900</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>6.98</v>
+        <v>6.202</v>
       </c>
       <c r="B458">
-        <v>11.66</v>
+        <v>14.52</v>
       </c>
       <c r="C458">
         <v>20.2</v>
       </c>
       <c r="D458">
-        <v>625800</v>
+        <v>228900</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>5.4269999999999996</v>
+        <v>5.8540000000000001</v>
       </c>
       <c r="B459">
-        <v>18.14</v>
+        <v>23.79</v>
       </c>
       <c r="C459">
         <v>20.2</v>
       </c>
       <c r="D459">
-        <v>289800</v>
+        <v>226800</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>6.1619999999999999</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="B460">
-        <v>24.1</v>
+        <v>28.28</v>
       </c>
       <c r="C460">
         <v>20.2</v>
       </c>
       <c r="D460">
-        <v>279300</v>
+        <v>220500</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>6.484</v>
+        <v>5.8179999999999996</v>
       </c>
       <c r="B461">
-        <v>18.68</v>
+        <v>22.11</v>
       </c>
       <c r="C461">
         <v>20.2</v>
       </c>
       <c r="D461">
-        <v>350700</v>
+        <v>220500</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>5.3040000000000003</v>
+        <v>6.968</v>
       </c>
       <c r="B462">
-        <v>24.91</v>
+        <v>17.21</v>
       </c>
       <c r="C462">
         <v>20.2</v>
       </c>
       <c r="D462">
-        <v>252000</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>6.1849999999999996</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="B463">
-        <v>18.03</v>
+        <v>26.64</v>
       </c>
       <c r="C463">
         <v>20.2</v>
       </c>
       <c r="D463">
-        <v>306600</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>6.2290000000000001</v>
+        <v>6.2229999999999999</v>
       </c>
       <c r="B464">
-        <v>13.11</v>
+        <v>21.78</v>
       </c>
       <c r="C464">
         <v>20.2</v>
       </c>
       <c r="D464">
-        <v>449400</v>
+        <v>214200</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>6.242</v>
+        <v>4.88</v>
       </c>
       <c r="B465">
-        <v>10.74</v>
+        <v>30.62</v>
       </c>
       <c r="C465">
         <v>20.2</v>
       </c>
       <c r="D465">
-        <v>483000</v>
+        <v>214200</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>6.75</v>
+        <v>5.8369999999999997</v>
       </c>
       <c r="B466">
-        <v>7.74</v>
+        <v>15.69</v>
       </c>
       <c r="C466">
         <v>20.2</v>
       </c>
       <c r="D466">
-        <v>497700</v>
+        <v>214200</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>7.0609999999999999</v>
+        <v>5.0359999999999996</v>
       </c>
       <c r="B467">
-        <v>7.01</v>
+        <v>25.68</v>
       </c>
       <c r="C467">
         <v>20.2</v>
       </c>
       <c r="D467">
-        <v>525000</v>
+        <v>203700</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>5.7619999999999996</v>
+        <v>6.4610000000000003</v>
       </c>
       <c r="B468">
-        <v>10.42</v>
+        <v>18.05</v>
       </c>
       <c r="C468">
         <v>20.2</v>
       </c>
       <c r="D468">
-        <v>457800</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>5.8710000000000004</v>
+        <v>6.38</v>
       </c>
       <c r="B469">
-        <v>13.34</v>
+        <v>24.08</v>
       </c>
       <c r="C469">
         <v>20.2</v>
       </c>
       <c r="D469">
-        <v>432600</v>
+        <v>199500</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>6.3120000000000003</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="B470">
-        <v>10.58</v>
+        <v>30.63</v>
       </c>
       <c r="C470">
         <v>20.2</v>
       </c>
       <c r="D470">
-        <v>445200</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>6.1139999999999999</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="B471">
-        <v>14.98</v>
+        <v>20.62</v>
       </c>
       <c r="C471">
         <v>20.2</v>
       </c>
       <c r="D471">
-        <v>401100</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>5.9050000000000002</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="B472">
-        <v>11.45</v>
+        <v>26.45</v>
       </c>
       <c r="C472">
         <v>20.2</v>
       </c>
       <c r="D472">
-        <v>432600</v>
+        <v>182700</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>5.4539999999999997</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="B473">
-        <v>18.059999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="C473">
-        <v>20.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D473">
-        <v>319200</v>
+        <v>178500</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>5.4139999999999997</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="B474">
-        <v>23.97</v>
+        <v>27.38</v>
       </c>
       <c r="C474">
-        <v>20.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D474">
-        <v>147000</v>
+        <v>178500</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>5.093</v>
+        <v>6.8239999999999998</v>
       </c>
       <c r="B475">
-        <v>29.68</v>
+        <v>22.74</v>
       </c>
       <c r="C475">
-        <v>20.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D475">
-        <v>170100</v>
+        <v>176400</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>5.9829999999999997</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="B476">
-        <v>18.07</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="C476">
-        <v>20.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D476">
-        <v>285600</v>
+        <v>176400</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>5.9829999999999997</v>
+        <v>5.3490000000000002</v>
       </c>
       <c r="B477">
-        <v>13.35</v>
+        <v>19.77</v>
       </c>
       <c r="C477">
-        <v>20.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D477">
-        <v>422100</v>
+        <v>174300</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>5.7069999999999999</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="B478">
-        <v>12.01</v>
+        <v>24.39</v>
       </c>
       <c r="C478">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D478">
-        <v>457800</v>
+        <v>174300</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>5.9260000000000002</v>
+        <v>5.093</v>
       </c>
       <c r="B479">
-        <v>13.59</v>
+        <v>29.68</v>
       </c>
       <c r="C479">
-        <v>19.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D479">
-        <v>514500</v>
+        <v>170100</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>5.67</v>
+        <v>6.782</v>
       </c>
       <c r="B480">
-        <v>17.600000000000001</v>
+        <v>25.79</v>
       </c>
       <c r="C480">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D480">
-        <v>485100</v>
+        <v>157500</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>5.39</v>
+        <v>5</v>
       </c>
       <c r="B481">
-        <v>21.14</v>
+        <v>31.99</v>
       </c>
       <c r="C481">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D481">
-        <v>413700</v>
+        <v>155400</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>5.7939999999999996</v>
+        <v>5.2770000000000001</v>
       </c>
       <c r="B482">
-        <v>14.1</v>
+        <v>30.81</v>
       </c>
       <c r="C482">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D482">
-        <v>384300</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>6.0190000000000001</v>
+        <v>6.343</v>
       </c>
       <c r="B483">
-        <v>12.92</v>
+        <v>20.32</v>
       </c>
       <c r="C483">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D483">
-        <v>445200</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>5.569</v>
+        <v>6.4340000000000002</v>
       </c>
       <c r="B484">
-        <v>15.1</v>
+        <v>29.05</v>
       </c>
       <c r="C484">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D484">
-        <v>367500</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>6.0270000000000001</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="B485">
-        <v>14.33</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="C485">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="D485">
-        <v>352800</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>6.593</v>
+        <v>5.4139999999999997</v>
       </c>
       <c r="B486">
-        <v>9.67</v>
+        <v>23.97</v>
       </c>
       <c r="C486">
-        <v>21</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D486">
-        <v>470400</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>6.12</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="B487">
-        <v>9.08</v>
+        <v>29.97</v>
       </c>
       <c r="C487">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="D487">
-        <v>432600</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>6.976</v>
+        <v>5.9870000000000001</v>
       </c>
       <c r="B488">
-        <v>5.64</v>
+        <v>26.77</v>
       </c>
       <c r="C488">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="D488">
-        <v>501900</v>
+        <v>117600</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>6.7939999999999996</v>
+        <v>5.4530000000000003</v>
       </c>
       <c r="B489">
-        <v>6.48</v>
+        <v>30.59</v>
       </c>
       <c r="C489">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="D489">
-        <v>462000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>6.03</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="B490">
-        <v>7.88</v>
+        <v>22.98</v>
       </c>
       <c r="C490">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="D490">
-        <v>249900</v>
+        <v>105000</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D490">
+    <sortCondition descending="1" ref="D2:D490"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7243,11 +7260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -7261,7 +7281,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>MAX(A2:A490)</f>
         <v>1024800</v>
       </c>
@@ -7273,7 +7293,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>MIN(A2:A490)</f>
         <v>105000</v>
       </c>
@@ -7285,7 +7305,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>MEDIAN(A2:A490)</f>
         <v>438900</v>
       </c>
@@ -7297,7 +7317,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>_xlfn.STDEV.P(A2:A490)</f>
         <v>165171.13154429474</v>
       </c>
@@ -7309,7 +7329,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>AVERAGE(A2:A490)</f>
         <v>454342.94478527608</v>
       </c>
